--- a/data/taggingData/setData.xlsx
+++ b/data/taggingData/setData.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chinTagging\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="500">
   <si>
     <t>set</t>
   </si>
@@ -940,13 +938,598 @@
   </si>
   <si>
     <t>rain</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>23/7/2019</t>
+  </si>
+  <si>
+    <t>52.053</t>
+  </si>
+  <si>
+    <t>32.392</t>
+  </si>
+  <si>
+    <t>0620</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>50.084</t>
+  </si>
+  <si>
+    <t>49.373</t>
+  </si>
+  <si>
+    <t>48.810</t>
+  </si>
+  <si>
+    <t>48.294</t>
+  </si>
+  <si>
+    <t>47.838</t>
+  </si>
+  <si>
+    <t>48.088</t>
+  </si>
+  <si>
+    <t>48.345</t>
+  </si>
+  <si>
+    <t>48.598</t>
+  </si>
+  <si>
+    <t>49.244</t>
+  </si>
+  <si>
+    <t>49.918</t>
+  </si>
+  <si>
+    <t>50.893</t>
+  </si>
+  <si>
+    <t>50.979</t>
+  </si>
+  <si>
+    <t>61.127</t>
+  </si>
+  <si>
+    <t>51.520</t>
+  </si>
+  <si>
+    <t>52.004</t>
+  </si>
+  <si>
+    <t>52.594</t>
+  </si>
+  <si>
+    <t>53.302</t>
+  </si>
+  <si>
+    <t>53.870</t>
+  </si>
+  <si>
+    <t>54.417</t>
+  </si>
+  <si>
+    <t>54.764</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>32.542</t>
+  </si>
+  <si>
+    <t>34.168</t>
+  </si>
+  <si>
+    <t>36.053</t>
+  </si>
+  <si>
+    <t>37.995</t>
+  </si>
+  <si>
+    <t>40.160</t>
+  </si>
+  <si>
+    <t>42.170</t>
+  </si>
+  <si>
+    <t>44.229</t>
+  </si>
+  <si>
+    <t>46.210</t>
+  </si>
+  <si>
+    <t>45.466</t>
+  </si>
+  <si>
+    <t>49.742</t>
+  </si>
+  <si>
+    <t>51.596</t>
+  </si>
+  <si>
+    <t>49.638</t>
+  </si>
+  <si>
+    <t>47.787</t>
+  </si>
+  <si>
+    <t>45.424</t>
+  </si>
+  <si>
+    <t>43.630</t>
+  </si>
+  <si>
+    <t>41.683</t>
+  </si>
+  <si>
+    <t>39.537</t>
+  </si>
+  <si>
+    <t>37.600</t>
+  </si>
+  <si>
+    <t>35.919</t>
+  </si>
+  <si>
+    <t>33.518</t>
+  </si>
+  <si>
+    <t>STOP at 1700 and 48 55.087 125 33.236</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>24/7/2019</t>
+  </si>
+  <si>
+    <t>38.185</t>
+  </si>
+  <si>
+    <t>36.382</t>
+  </si>
+  <si>
+    <t>34.821</t>
+  </si>
+  <si>
+    <t>33.609</t>
+  </si>
+  <si>
+    <t>33.085</t>
+  </si>
+  <si>
+    <t>32.400</t>
+  </si>
+  <si>
+    <t>32.094</t>
+  </si>
+  <si>
+    <t>31.792</t>
+  </si>
+  <si>
+    <t>31.646</t>
+  </si>
+  <si>
+    <t>31.083</t>
+  </si>
+  <si>
+    <t>30.396</t>
+  </si>
+  <si>
+    <t>30.561</t>
+  </si>
+  <si>
+    <t>30.947</t>
+  </si>
+  <si>
+    <t>31.333</t>
+  </si>
+  <si>
+    <t>31.753</t>
+  </si>
+  <si>
+    <t>32.635</t>
+  </si>
+  <si>
+    <t>33.322</t>
+  </si>
+  <si>
+    <t>34.184</t>
+  </si>
+  <si>
+    <t>34.987</t>
+  </si>
+  <si>
+    <t>38.234</t>
+  </si>
+  <si>
+    <t>39.140</t>
+  </si>
+  <si>
+    <t>40.377</t>
+  </si>
+  <si>
+    <t>42.368</t>
+  </si>
+  <si>
+    <t>43.436</t>
+  </si>
+  <si>
+    <t>45.416</t>
+  </si>
+  <si>
+    <t>47.491</t>
+  </si>
+  <si>
+    <t>49.489</t>
+  </si>
+  <si>
+    <t>50.545</t>
+  </si>
+  <si>
+    <t>51.991</t>
+  </si>
+  <si>
+    <t>53.521</t>
+  </si>
+  <si>
+    <t>52.352</t>
+  </si>
+  <si>
+    <t>30.125</t>
+  </si>
+  <si>
+    <t>47.813</t>
+  </si>
+  <si>
+    <t>40.437</t>
+  </si>
+  <si>
+    <t>43.769</t>
+  </si>
+  <si>
+    <t>42.355</t>
+  </si>
+  <si>
+    <t>48.511</t>
+  </si>
+  <si>
+    <t>39.845</t>
+  </si>
+  <si>
+    <t>0750</t>
+  </si>
+  <si>
+    <t>1045</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>STOP at 1305 and 48 30.273 125 53.544</t>
+  </si>
+  <si>
+    <t>1415</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1615</t>
+  </si>
+  <si>
+    <t>1645</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>STOP at 1745 and 48 35.928 125 41.147</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>25/7/2019</t>
+  </si>
+  <si>
+    <t>35.863</t>
+  </si>
+  <si>
+    <t>34.852</t>
+  </si>
+  <si>
+    <t>34.947</t>
+  </si>
+  <si>
+    <t>35.956</t>
+  </si>
+  <si>
+    <t>36.785</t>
+  </si>
+  <si>
+    <t>37.275</t>
+  </si>
+  <si>
+    <t>37.749</t>
+  </si>
+  <si>
+    <t>38.098</t>
+  </si>
+  <si>
+    <t>39.319</t>
+  </si>
+  <si>
+    <t>39.653</t>
+  </si>
+  <si>
+    <t>39.935</t>
+  </si>
+  <si>
+    <t>40.293</t>
+  </si>
+  <si>
+    <t>41.346</t>
+  </si>
+  <si>
+    <t>42.381</t>
+  </si>
+  <si>
+    <t>43.434</t>
+  </si>
+  <si>
+    <t>44.529</t>
+  </si>
+  <si>
+    <t>41.291</t>
+  </si>
+  <si>
+    <t>41.090</t>
+  </si>
+  <si>
+    <t>40.954</t>
+  </si>
+  <si>
+    <t>43.307</t>
+  </si>
+  <si>
+    <t>45.255</t>
+  </si>
+  <si>
+    <t>46.750</t>
+  </si>
+  <si>
+    <t>49.015</t>
+  </si>
+  <si>
+    <t>50.807</t>
+  </si>
+  <si>
+    <t>51.379</t>
+  </si>
+  <si>
+    <t>53.014</t>
+  </si>
+  <si>
+    <t>54.927</t>
+  </si>
+  <si>
+    <t>56.262</t>
+  </si>
+  <si>
+    <t>55.084</t>
+  </si>
+  <si>
+    <t>53.625</t>
+  </si>
+  <si>
+    <t>52.351</t>
+  </si>
+  <si>
+    <t>51.116</t>
+  </si>
+  <si>
+    <t>0600</t>
+  </si>
+  <si>
+    <t>0630</t>
+  </si>
+  <si>
+    <t>spoons</t>
+  </si>
+  <si>
+    <t>STOP at 1400 and 48 45.541 125 49.492</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,6 +1540,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -976,9 +1575,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -986,7 +1653,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="70">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1046,7 +1781,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1081,7 +1816,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1258,7 +1993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1266,26 +2001,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="3"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="7" max="8" width="8.88671875" style="3"/>
-    <col min="10" max="10" width="8.88671875" style="3"/>
-    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="17.21875" customWidth="1"/>
-    <col min="17" max="17" width="37.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="7" max="8" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="8.83203125" style="3"/>
+    <col min="13" max="13" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="17.1640625" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1338,7 +2074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" t="str">
         <f>"CT2019"&amp;"_"&amp;B2</f>
         <v>CT2019_001</v>
@@ -1392,7 +2128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" t="str">
         <f>"CT2019"&amp;"_"&amp;B3</f>
         <v>CT2019_002</v>
@@ -1446,7 +2182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">"CT2019"&amp;"_"&amp;B4</f>
         <v>CT2019_003</v>
@@ -1497,7 +2233,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_004</v>
@@ -1551,7 +2287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_005</v>
@@ -1605,7 +2341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_006</v>
@@ -1656,7 +2392,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_007</v>
@@ -1707,7 +2443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_008</v>
@@ -1761,7 +2497,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_009</v>
@@ -1812,7 +2548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_010</v>
@@ -1863,7 +2599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_011</v>
@@ -1914,7 +2650,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_012</v>
@@ -1965,7 +2701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_013</v>
@@ -2016,7 +2752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_014</v>
@@ -2067,7 +2803,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_015</v>
@@ -2118,7 +2854,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_016</v>
@@ -2169,7 +2905,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_017</v>
@@ -2220,7 +2956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_018</v>
@@ -2271,7 +3007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_019</v>
@@ -2325,7 +3061,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_020</v>
@@ -2376,7 +3112,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_021</v>
@@ -2430,7 +3166,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_022</v>
@@ -2481,7 +3217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_023</v>
@@ -2532,7 +3268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_024</v>
@@ -2583,7 +3319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_025</v>
@@ -2637,7 +3373,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_026</v>
@@ -2688,7 +3424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_027</v>
@@ -2739,7 +3475,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_028</v>
@@ -2790,7 +3526,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_029</v>
@@ -2841,7 +3577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_030</v>
@@ -2892,7 +3628,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_031</v>
@@ -2943,7 +3679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_032</v>
@@ -2994,7 +3730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_033</v>
@@ -3048,7 +3784,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_034</v>
@@ -3099,7 +3835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_035</v>
@@ -3150,7 +3886,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_036</v>
@@ -3201,7 +3937,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_037</v>
@@ -3252,7 +3988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_038</v>
@@ -3303,7 +4039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_039</v>
@@ -3354,7 +4090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_040</v>
@@ -3405,7 +4141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_041</v>
@@ -3456,7 +4192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_042</v>
@@ -3507,7 +4243,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_043</v>
@@ -3558,7 +4294,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_044</v>
@@ -3609,7 +4345,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_045</v>
@@ -3663,7 +4399,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_046</v>
@@ -3714,7 +4450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_047</v>
@@ -3765,7 +4501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_048</v>
@@ -3816,7 +4552,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_049</v>
@@ -3867,7 +4603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_050</v>
@@ -3918,7 +4654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_051</v>
@@ -3969,7 +4705,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_052</v>
@@ -4020,7 +4756,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_053</v>
@@ -4071,7 +4807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_054</v>
@@ -4125,7 +4861,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_055</v>
@@ -4176,7 +4912,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_056</v>
@@ -4227,7 +4963,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_057</v>
@@ -4278,7 +5014,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_058</v>
@@ -4329,7 +5065,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_059</v>
@@ -4380,7 +5116,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_060</v>
@@ -4434,7 +5170,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_061</v>
@@ -4485,7 +5221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_062</v>
@@ -4536,7 +5272,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_063</v>
@@ -4587,7 +5323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_064</v>
@@ -4638,7 +5374,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_065</v>
@@ -4689,7 +5425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_066</v>
@@ -4740,9 +5476,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="A68" t="str">
-        <f t="shared" ref="A68:A78" si="1">"CT2019"&amp;"_"&amp;B68</f>
+        <f t="shared" ref="A68:A131" si="1">"CT2019"&amp;"_"&amp;B68</f>
         <v>CT2019_067</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -4791,7 +5527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_068</v>
@@ -4842,7 +5578,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_069</v>
@@ -4893,7 +5629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_070</v>
@@ -4944,7 +5680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_071</v>
@@ -4998,7 +5734,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_072</v>
@@ -5049,7 +5785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_073</v>
@@ -5100,7 +5836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_074</v>
@@ -5151,7 +5887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_075</v>
@@ -5202,7 +5938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_076</v>
@@ -5256,7 +5992,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_077</v>
@@ -5310,9 +6046,2882 @@
         <v>300</v>
       </c>
     </row>
+    <row r="79" spans="1:17">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_078</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" t="s">
+        <v>306</v>
+      </c>
+      <c r="D79">
+        <v>48</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F79">
+        <v>125</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79">
+        <v>0.5</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_079</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C80" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80">
+        <v>48</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F80">
+        <v>125</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M80" t="s">
+        <v>13</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_080</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C81" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81">
+        <v>48</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F81">
+        <v>125</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M81" t="s">
+        <v>13</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O81">
+        <v>1</v>
+      </c>
+      <c r="P81" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_081</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C82" t="s">
+        <v>306</v>
+      </c>
+      <c r="D82">
+        <v>48</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F82">
+        <v>125</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" t="s">
+        <v>13</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_082</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83">
+        <v>48</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83">
+        <v>125</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" t="s">
+        <v>13</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_083</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" t="s">
+        <v>306</v>
+      </c>
+      <c r="D84">
+        <v>48</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F84">
+        <v>125</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" t="s">
+        <v>13</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_084</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>306</v>
+      </c>
+      <c r="D85">
+        <v>48</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F85">
+        <v>125</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3">
+        <v>26</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M85" t="s">
+        <v>13</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85">
+        <v>0.5</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_085</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C86" t="s">
+        <v>306</v>
+      </c>
+      <c r="D86">
+        <v>48</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F86">
+        <v>125</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" s="3">
+        <v>26</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M86" t="s">
+        <v>13</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O86">
+        <v>0.5</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_086</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C87" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87">
+        <v>48</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F87">
+        <v>125</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3">
+        <v>26</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M87" t="s">
+        <v>13</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O87">
+        <v>0.5</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_087</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" t="s">
+        <v>306</v>
+      </c>
+      <c r="D88">
+        <v>48</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F88">
+        <v>125</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3">
+        <v>26</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M88" t="s">
+        <v>13</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O88">
+        <v>0.5</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_088</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89" t="s">
+        <v>306</v>
+      </c>
+      <c r="D89">
+        <v>48</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F89">
+        <v>125</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3">
+        <v>26</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M89" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O89">
+        <v>0.5</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_089</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" t="s">
+        <v>306</v>
+      </c>
+      <c r="D90">
+        <v>48</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F90">
+        <v>125</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3">
+        <v>26</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M90" t="s">
+        <v>13</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O90">
+        <v>0.5</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_090</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91">
+        <v>48</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F91">
+        <v>125</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3">
+        <v>26</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M91" t="s">
+        <v>13</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O91">
+        <v>0.5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_091</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C92" t="s">
+        <v>306</v>
+      </c>
+      <c r="D92">
+        <v>48</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="F92">
+        <v>125</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92" s="3">
+        <v>26</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M92" t="s">
+        <v>13</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O92">
+        <v>0.5</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_092</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" t="s">
+        <v>306</v>
+      </c>
+      <c r="D93">
+        <v>48</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F93">
+        <v>125</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" s="3">
+        <v>26</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M93" t="s">
+        <v>13</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O93">
+        <v>0.5</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_093</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C94" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94">
+        <v>48</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F94">
+        <v>125</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94" s="3">
+        <v>20</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M94" t="s">
+        <v>13</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O94">
+        <v>0.25</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_094</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" t="s">
+        <v>306</v>
+      </c>
+      <c r="D95">
+        <v>48</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F95">
+        <v>125</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95" s="3">
+        <v>20</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M95" t="s">
+        <v>13</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O95">
+        <v>0.5</v>
+      </c>
+      <c r="P95" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_095</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C96" t="s">
+        <v>306</v>
+      </c>
+      <c r="D96">
+        <v>48</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F96">
+        <v>125</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3">
+        <v>20</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M96" t="s">
+        <v>13</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O96">
+        <v>0.5</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_096</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" t="s">
+        <v>306</v>
+      </c>
+      <c r="D97">
+        <v>48</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F97">
+        <v>125</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97" s="3">
+        <v>20</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M97" t="s">
+        <v>13</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_097</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C98" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98">
+        <v>48</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F98">
+        <v>125</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I98">
+        <v>2</v>
+      </c>
+      <c r="J98" s="3">
+        <v>18</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M98" t="s">
+        <v>13</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O98">
+        <v>0.25</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_098</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C99" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99">
+        <v>48</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F99">
+        <v>125</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="I99">
+        <v>2</v>
+      </c>
+      <c r="J99" s="3">
+        <v>18</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M99" t="s">
+        <v>13</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O99">
+        <v>0.25</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_099</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C100" t="s">
+        <v>373</v>
+      </c>
+      <c r="D100">
+        <v>48</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F100">
+        <v>125</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M100" t="s">
+        <v>13</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C101" t="s">
+        <v>373</v>
+      </c>
+      <c r="D101">
+        <v>48</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F101">
+        <v>125</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M101" t="s">
+        <v>13</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C102" t="s">
+        <v>373</v>
+      </c>
+      <c r="D102">
+        <v>48</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F102">
+        <v>125</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M102" t="s">
+        <v>13</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C103" t="s">
+        <v>373</v>
+      </c>
+      <c r="D103">
+        <v>48</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F103">
+        <v>125</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M103" t="s">
+        <v>13</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C104" t="s">
+        <v>373</v>
+      </c>
+      <c r="D104">
+        <v>48</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F104">
+        <v>125</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M104" t="s">
+        <v>13</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C105" t="s">
+        <v>373</v>
+      </c>
+      <c r="D105">
+        <v>48</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F105">
+        <v>125</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" t="s">
+        <v>13</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C106" t="s">
+        <v>373</v>
+      </c>
+      <c r="D106">
+        <v>48</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F106">
+        <v>125</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M106" t="s">
+        <v>13</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_106</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C107" t="s">
+        <v>373</v>
+      </c>
+      <c r="D107">
+        <v>48</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F107">
+        <v>125</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M107" t="s">
+        <v>13</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C108" t="s">
+        <v>373</v>
+      </c>
+      <c r="D108">
+        <v>48</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="F108">
+        <v>125</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M108" t="s">
+        <v>13</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_108</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C109" t="s">
+        <v>373</v>
+      </c>
+      <c r="D109">
+        <v>48</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F109">
+        <v>125</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" t="s">
+        <v>13</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C110" t="s">
+        <v>373</v>
+      </c>
+      <c r="D110">
+        <v>48</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="F110">
+        <v>125</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M110" t="s">
+        <v>13</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C111" t="s">
+        <v>373</v>
+      </c>
+      <c r="D111">
+        <v>48</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F111">
+        <v>125</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111" t="s">
+        <v>13</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C112" t="s">
+        <v>373</v>
+      </c>
+      <c r="D112">
+        <v>48</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F112">
+        <v>125</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M112" t="s">
+        <v>13</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C113" t="s">
+        <v>373</v>
+      </c>
+      <c r="D113">
+        <v>48</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F113">
+        <v>125</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M113" t="s">
+        <v>13</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C114" t="s">
+        <v>373</v>
+      </c>
+      <c r="D114">
+        <v>48</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F114">
+        <v>125</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M114" t="s">
+        <v>13</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C115" t="s">
+        <v>373</v>
+      </c>
+      <c r="D115">
+        <v>48</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="F115">
+        <v>125</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M115" t="s">
+        <v>13</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C116" t="s">
+        <v>373</v>
+      </c>
+      <c r="D116">
+        <v>48</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F116">
+        <v>125</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M116" t="s">
+        <v>13</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C117" t="s">
+        <v>373</v>
+      </c>
+      <c r="D117">
+        <v>48</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F117">
+        <v>125</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M117" t="s">
+        <v>13</v>
+      </c>
+      <c r="N117" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C118" t="s">
+        <v>373</v>
+      </c>
+      <c r="D118">
+        <v>48</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F118">
+        <v>125</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="I118">
+        <v>2</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M118" t="s">
+        <v>13</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C119" t="s">
+        <v>463</v>
+      </c>
+      <c r="D119">
+        <v>48</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F119">
+        <v>125</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M119" t="s">
+        <v>13</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C120" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120">
+        <v>48</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F120">
+        <v>125</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M120" t="s">
+        <v>13</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C121" t="s">
+        <v>463</v>
+      </c>
+      <c r="D121">
+        <v>48</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F121">
+        <v>125</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M121" t="s">
+        <v>13</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_121</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C122" t="s">
+        <v>463</v>
+      </c>
+      <c r="D122">
+        <v>48</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F122">
+        <v>125</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M122" t="s">
+        <v>13</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_122</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C123" t="s">
+        <v>463</v>
+      </c>
+      <c r="D123">
+        <v>48</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F123">
+        <v>125</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M123" t="s">
+        <v>13</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O123">
+        <v>0.25</v>
+      </c>
+      <c r="P123" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_123</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C124" t="s">
+        <v>463</v>
+      </c>
+      <c r="D124">
+        <v>48</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F124">
+        <v>125</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M124" t="s">
+        <v>13</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O124">
+        <v>0.25</v>
+      </c>
+      <c r="P124" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_124</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C125" t="s">
+        <v>463</v>
+      </c>
+      <c r="D125">
+        <v>48</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F125">
+        <v>125</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M125" t="s">
+        <v>13</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O125">
+        <v>0.25</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_125</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C126" t="s">
+        <v>463</v>
+      </c>
+      <c r="D126">
+        <v>48</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F126">
+        <v>125</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M126" t="s">
+        <v>13</v>
+      </c>
+      <c r="N126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O126">
+        <v>0.25</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_126</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C127" t="s">
+        <v>463</v>
+      </c>
+      <c r="D127">
+        <v>48</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F127">
+        <v>125</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M127" t="s">
+        <v>13</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O127">
+        <v>0.5</v>
+      </c>
+      <c r="P127" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_127</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C128" t="s">
+        <v>463</v>
+      </c>
+      <c r="D128">
+        <v>48</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F128">
+        <v>125</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M128" t="s">
+        <v>13</v>
+      </c>
+      <c r="N128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O128">
+        <v>0.5</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_128</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C129" t="s">
+        <v>463</v>
+      </c>
+      <c r="D129">
+        <v>48</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F129">
+        <v>125</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M129" t="s">
+        <v>13</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O129">
+        <v>0.5</v>
+      </c>
+      <c r="P129" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_129</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C130" t="s">
+        <v>463</v>
+      </c>
+      <c r="D130">
+        <v>48</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F130">
+        <v>125</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M130" t="s">
+        <v>13</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O130">
+        <v>0.5</v>
+      </c>
+      <c r="P130" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" t="str">
+        <f t="shared" si="1"/>
+        <v>CT2019_130</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C131" t="s">
+        <v>463</v>
+      </c>
+      <c r="D131">
+        <v>48</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F131">
+        <v>125</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M131" t="s">
+        <v>13</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O131">
+        <v>0.5</v>
+      </c>
+      <c r="P131" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" t="str">
+        <f t="shared" ref="A132:A134" si="2">"CT2019"&amp;"_"&amp;B132</f>
+        <v>CT2019_131</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C132" t="s">
+        <v>463</v>
+      </c>
+      <c r="D132">
+        <v>48</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F132">
+        <v>125</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M132" t="s">
+        <v>13</v>
+      </c>
+      <c r="N132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O132">
+        <v>0.5</v>
+      </c>
+      <c r="P132" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_132</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C133" t="s">
+        <v>463</v>
+      </c>
+      <c r="D133">
+        <v>48</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F133">
+        <v>125</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" t="s">
+        <v>13</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O133">
+        <v>0.5</v>
+      </c>
+      <c r="P133" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C134" t="s">
+        <v>463</v>
+      </c>
+      <c r="D134">
+        <v>48</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="F134">
+        <v>125</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M134" t="s">
+        <v>498</v>
+      </c>
+      <c r="N134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O134">
+        <v>0.5</v>
+      </c>
+      <c r="P134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5324,34 +8933,39 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>191</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/taggingData/setData.xlsx
+++ b/data/taggingData/setData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="522">
   <si>
     <t>set</t>
   </si>
@@ -1591,6 +1591,9 @@
   </si>
   <si>
     <t>latDegreeStart</t>
+  </si>
+  <si>
+    <t>51.127</t>
   </si>
 </sst>
 </file>
@@ -2072,8 +2075,8 @@
   <dimension ref="A1:U134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7886,7 +7889,7 @@
         <v>48</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>319</v>
+        <v>521</v>
       </c>
       <c r="F92">
         <v>125</v>

--- a/data/taggingData/setData.xlsx
+++ b/data/taggingData/setData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="523">
   <si>
     <t>set</t>
   </si>
@@ -1594,6 +1594,9 @@
   </si>
   <si>
     <t>51.127</t>
+  </si>
+  <si>
+    <t>35.092</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2079,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6626,7 +6629,7 @@
         <v>125</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>289</v>
+        <v>522</v>
       </c>
       <c r="H72">
         <v>48</v>

--- a/data/taggingData/setData.xlsx
+++ b/data/taggingData/setData.xlsx
@@ -1,34 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chinDist\data\taggingData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17544"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="701">
   <si>
     <t>set</t>
   </si>
@@ -1597,12 +1592,546 @@
   </si>
   <si>
     <t>35.092</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>14/8/2019</t>
+  </si>
+  <si>
+    <t>50.270</t>
+  </si>
+  <si>
+    <t>49.942</t>
+  </si>
+  <si>
+    <t>49.710</t>
+  </si>
+  <si>
+    <t>49.562</t>
+  </si>
+  <si>
+    <t>49.227</t>
+  </si>
+  <si>
+    <t>48.920</t>
+  </si>
+  <si>
+    <t>48.239</t>
+  </si>
+  <si>
+    <t>47.731</t>
+  </si>
+  <si>
+    <t>47.044</t>
+  </si>
+  <si>
+    <t>46.357</t>
+  </si>
+  <si>
+    <t>45.613</t>
+  </si>
+  <si>
+    <t>45.626</t>
+  </si>
+  <si>
+    <t>45.700</t>
+  </si>
+  <si>
+    <t>45.869</t>
+  </si>
+  <si>
+    <t>45.928</t>
+  </si>
+  <si>
+    <t>45.890</t>
+  </si>
+  <si>
+    <t>46.054</t>
+  </si>
+  <si>
+    <t>46.764</t>
+  </si>
+  <si>
+    <t>48.919</t>
+  </si>
+  <si>
+    <t>51.364</t>
+  </si>
+  <si>
+    <t>50.676</t>
+  </si>
+  <si>
+    <t>55.111</t>
+  </si>
+  <si>
+    <t>57.369</t>
+  </si>
+  <si>
+    <t>59.315</t>
+  </si>
+  <si>
+    <t>01.354</t>
+  </si>
+  <si>
+    <t>03.347</t>
+  </si>
+  <si>
+    <t>02.862</t>
+  </si>
+  <si>
+    <t>01.072</t>
+  </si>
+  <si>
+    <t>58.969</t>
+  </si>
+  <si>
+    <t>57.272</t>
+  </si>
+  <si>
+    <t>54.944</t>
+  </si>
+  <si>
+    <t>52.936</t>
+  </si>
+  <si>
+    <t>51.067</t>
+  </si>
+  <si>
+    <t>49.061</t>
+  </si>
+  <si>
+    <t>46.815</t>
+  </si>
+  <si>
+    <t>48.638</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>0725</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>STOP at 1600 and 48 46.054 125 46.815</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>15/8/2019</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>52.456</t>
+  </si>
+  <si>
+    <t>51.424</t>
+  </si>
+  <si>
+    <t>49.992</t>
+  </si>
+  <si>
+    <t>49.334</t>
+  </si>
+  <si>
+    <t>49.956</t>
+  </si>
+  <si>
+    <t>48.917</t>
+  </si>
+  <si>
+    <t>48.756</t>
+  </si>
+  <si>
+    <t>48.253</t>
+  </si>
+  <si>
+    <t>47.775</t>
+  </si>
+  <si>
+    <t>48.104</t>
+  </si>
+  <si>
+    <t>47.988</t>
+  </si>
+  <si>
+    <t>48.122</t>
+  </si>
+  <si>
+    <t>48.964</t>
+  </si>
+  <si>
+    <t>48.766</t>
+  </si>
+  <si>
+    <t>48.248</t>
+  </si>
+  <si>
+    <t>47.756</t>
+  </si>
+  <si>
+    <t>47.660</t>
+  </si>
+  <si>
+    <t>47.640</t>
+  </si>
+  <si>
+    <t>47.760</t>
+  </si>
+  <si>
+    <t>43.395</t>
+  </si>
+  <si>
+    <t>32.716</t>
+  </si>
+  <si>
+    <t>32.288</t>
+  </si>
+  <si>
+    <t>32.837</t>
+  </si>
+  <si>
+    <t>34.435</t>
+  </si>
+  <si>
+    <t>32.908</t>
+  </si>
+  <si>
+    <t>35.744</t>
+  </si>
+  <si>
+    <t>36.487</t>
+  </si>
+  <si>
+    <t>38.467</t>
+  </si>
+  <si>
+    <t>40.579</t>
+  </si>
+  <si>
+    <t>38.761</t>
+  </si>
+  <si>
+    <t>40.969</t>
+  </si>
+  <si>
+    <t>42.539</t>
+  </si>
+  <si>
+    <t>43.759</t>
+  </si>
+  <si>
+    <t>42.057</t>
+  </si>
+  <si>
+    <t>40.194</t>
+  </si>
+  <si>
+    <t>39.656</t>
+  </si>
+  <si>
+    <t>40.632</t>
+  </si>
+  <si>
+    <t>38.329</t>
+  </si>
+  <si>
+    <t>36.351</t>
+  </si>
+  <si>
+    <t>34.650</t>
+  </si>
+  <si>
+    <t>49.250</t>
+  </si>
+  <si>
+    <t>33.074</t>
+  </si>
+  <si>
+    <t>0635</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>blue shark</t>
+  </si>
+  <si>
+    <t>STOP at 1630 48 49.250 125 33.074</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>16/8/2019</t>
+  </si>
+  <si>
+    <t>57.902</t>
+  </si>
+  <si>
+    <t>50.057</t>
+  </si>
+  <si>
+    <t>49.207</t>
+  </si>
+  <si>
+    <t>48.360</t>
+  </si>
+  <si>
+    <t>47.730</t>
+  </si>
+  <si>
+    <t>47.734</t>
+  </si>
+  <si>
+    <t>47.900</t>
+  </si>
+  <si>
+    <t>48.763</t>
+  </si>
+  <si>
+    <t>48.544</t>
+  </si>
+  <si>
+    <t>47.974</t>
+  </si>
+  <si>
+    <t>47.138</t>
+  </si>
+  <si>
+    <t>47.499</t>
+  </si>
+  <si>
+    <t>47.901</t>
+  </si>
+  <si>
+    <t>48.897</t>
+  </si>
+  <si>
+    <t>48.426</t>
+  </si>
+  <si>
+    <t>48.896</t>
+  </si>
+  <si>
+    <t>32.021</t>
+  </si>
+  <si>
+    <t>32.297</t>
+  </si>
+  <si>
+    <t>33.565</t>
+  </si>
+  <si>
+    <t>35.665</t>
+  </si>
+  <si>
+    <t>37.193</t>
+  </si>
+  <si>
+    <t>38.008</t>
+  </si>
+  <si>
+    <t>36.323</t>
+  </si>
+  <si>
+    <t>34.608</t>
+  </si>
+  <si>
+    <t>35.100</t>
+  </si>
+  <si>
+    <t>36.466</t>
+  </si>
+  <si>
+    <t>38.826</t>
+  </si>
+  <si>
+    <t>37.303</t>
+  </si>
+  <si>
+    <t>35.904</t>
+  </si>
+  <si>
+    <t>34.495</t>
+  </si>
+  <si>
+    <t>35.585</t>
+  </si>
+  <si>
+    <t>34.494</t>
+  </si>
+  <si>
+    <t>50.359</t>
+  </si>
+  <si>
+    <t>32.152</t>
+  </si>
+  <si>
+    <t>STOP at 1515 48 50.359 and 125 32.152</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1649,9 +2178,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="70">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1727,7 +2314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="70">
+  <cellStyles count="128">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1762,6 +2349,35 @@
     <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1796,6 +2412,35 @@
     <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -1855,7 +2500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1890,7 +2535,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2067,7 +2712,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2075,29 +2720,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U134"/>
+  <dimension ref="A1:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U188" sqref="U188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" style="3"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="3"/>
-    <col min="7" max="7" width="8.77734375" style="3"/>
-    <col min="9" max="9" width="8.77734375" style="3"/>
-    <col min="11" max="12" width="8.77734375" style="3"/>
-    <col min="14" max="14" width="8.77734375" style="3"/>
-    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="17.109375" customWidth="1"/>
-    <col min="21" max="21" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="8.83203125" style="3"/>
+    <col min="9" max="9" width="8.83203125" style="3"/>
+    <col min="11" max="12" width="8.83203125" style="3"/>
+    <col min="14" max="14" width="8.83203125" style="3"/>
+    <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="17.1640625" customWidth="1"/>
+    <col min="21" max="21" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2162,7 +2807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21">
       <c r="A2" t="str">
         <f>"CT2019"&amp;"_"&amp;B2</f>
         <v>CT2019_001</v>
@@ -2228,7 +2873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" t="str">
         <f>"CT2019"&amp;"_"&amp;B3</f>
         <v>CT2019_002</v>
@@ -2294,7 +2939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">"CT2019"&amp;"_"&amp;B4</f>
         <v>CT2019_003</v>
@@ -2357,7 +3002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_004</v>
@@ -2423,7 +3068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_005</v>
@@ -2489,7 +3134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_006</v>
@@ -2552,7 +3197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_007</v>
@@ -2615,7 +3260,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_008</v>
@@ -2681,7 +3326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_009</v>
@@ -2744,7 +3389,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_010</v>
@@ -2807,7 +3452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_011</v>
@@ -2870,7 +3515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_012</v>
@@ -2933,7 +3578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_013</v>
@@ -2996,7 +3641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_014</v>
@@ -3059,7 +3704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_015</v>
@@ -3122,7 +3767,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_016</v>
@@ -3185,7 +3830,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_017</v>
@@ -3248,7 +3893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_018</v>
@@ -3311,7 +3956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_019</v>
@@ -3377,7 +4022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_020</v>
@@ -3440,7 +4085,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_021</v>
@@ -3506,7 +4151,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_022</v>
@@ -3569,7 +4214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_023</v>
@@ -3632,7 +4277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_024</v>
@@ -3695,7 +4340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_025</v>
@@ -3761,7 +4406,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_026</v>
@@ -3824,7 +4469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_027</v>
@@ -3887,7 +4532,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_028</v>
@@ -3950,7 +4595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_029</v>
@@ -4013,7 +4658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_030</v>
@@ -4076,7 +4721,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_031</v>
@@ -4139,7 +4784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_032</v>
@@ -4202,7 +4847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_033</v>
@@ -4268,7 +4913,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_034</v>
@@ -4331,7 +4976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_035</v>
@@ -4394,7 +5039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_036</v>
@@ -4457,7 +5102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_037</v>
@@ -4520,7 +5165,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_038</v>
@@ -4583,7 +5228,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_039</v>
@@ -4646,7 +5291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_040</v>
@@ -4709,7 +5354,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_041</v>
@@ -4772,7 +5417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_042</v>
@@ -4835,7 +5480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_043</v>
@@ -4898,7 +5543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_044</v>
@@ -4961,7 +5606,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_045</v>
@@ -5027,7 +5672,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_046</v>
@@ -5090,7 +5735,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_047</v>
@@ -5153,7 +5798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_048</v>
@@ -5216,7 +5861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_049</v>
@@ -5279,7 +5924,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_050</v>
@@ -5342,7 +5987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_051</v>
@@ -5405,7 +6050,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_052</v>
@@ -5468,7 +6113,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_053</v>
@@ -5531,7 +6176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_054</v>
@@ -5597,7 +6242,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_055</v>
@@ -5660,7 +6305,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_056</v>
@@ -5723,7 +6368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_057</v>
@@ -5786,7 +6431,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_058</v>
@@ -5849,7 +6494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_059</v>
@@ -5912,7 +6557,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_060</v>
@@ -5978,7 +6623,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_061</v>
@@ -6041,7 +6686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_062</v>
@@ -6104,7 +6749,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_063</v>
@@ -6167,7 +6812,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_064</v>
@@ -6230,7 +6875,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_065</v>
@@ -6293,7 +6938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_066</v>
@@ -6356,7 +7001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="1">"CT2019"&amp;"_"&amp;B68</f>
         <v>CT2019_067</v>
@@ -6419,7 +7064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_068</v>
@@ -6482,7 +7127,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_069</v>
@@ -6545,7 +7190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_070</v>
@@ -6608,7 +7253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_071</v>
@@ -6674,7 +7319,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_072</v>
@@ -6737,7 +7382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_073</v>
@@ -6800,7 +7445,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_074</v>
@@ -6863,7 +7508,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_075</v>
@@ -6926,7 +7571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_076</v>
@@ -6992,7 +7637,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_077</v>
@@ -7058,7 +7703,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_078</v>
@@ -7121,7 +7766,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_079</v>
@@ -7184,7 +7829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_080</v>
@@ -7247,7 +7892,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_081</v>
@@ -7310,7 +7955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_082</v>
@@ -7373,7 +8018,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_083</v>
@@ -7436,7 +8081,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_084</v>
@@ -7499,7 +8144,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_085</v>
@@ -7562,7 +8207,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_086</v>
@@ -7625,7 +8270,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_087</v>
@@ -7688,7 +8333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_088</v>
@@ -7751,7 +8396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_089</v>
@@ -7814,7 +8459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_090</v>
@@ -7877,7 +8522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_091</v>
@@ -7940,7 +8585,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_092</v>
@@ -8003,7 +8648,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_093</v>
@@ -8066,7 +8711,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_094</v>
@@ -8129,7 +8774,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_095</v>
@@ -8192,7 +8837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_096</v>
@@ -8255,7 +8900,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_097</v>
@@ -8318,7 +8963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_098</v>
@@ -8384,7 +9029,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_099</v>
@@ -8447,7 +9092,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_100</v>
@@ -8510,7 +9155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_101</v>
@@ -8573,7 +9218,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_102</v>
@@ -8636,7 +9281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_103</v>
@@ -8699,7 +9344,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_104</v>
@@ -8762,7 +9407,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_105</v>
@@ -8825,7 +9470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_106</v>
@@ -8888,7 +9533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_107</v>
@@ -8951,7 +9596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_108</v>
@@ -9014,7 +9659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_109</v>
@@ -9080,7 +9725,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_110</v>
@@ -9143,7 +9788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_111</v>
@@ -9206,7 +9851,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_112</v>
@@ -9269,7 +9914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_113</v>
@@ -9332,7 +9977,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_114</v>
@@ -9395,7 +10040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_115</v>
@@ -9458,7 +10103,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_116</v>
@@ -9521,7 +10166,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_117</v>
@@ -9587,7 +10232,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_118</v>
@@ -9650,7 +10295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_119</v>
@@ -9713,7 +10358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_120</v>
@@ -9776,7 +10421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_121</v>
@@ -9839,7 +10484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_122</v>
@@ -9902,7 +10547,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_123</v>
@@ -9965,7 +10610,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_124</v>
@@ -10028,7 +10673,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_125</v>
@@ -10091,7 +10736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_126</v>
@@ -10154,7 +10799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_127</v>
@@ -10217,7 +10862,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_128</v>
@@ -10280,7 +10925,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_129</v>
@@ -10343,7 +10988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21">
       <c r="A131" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_130</v>
@@ -10406,9 +11051,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A134" si="2">"CT2019"&amp;"_"&amp;B132</f>
+        <f t="shared" ref="A132:A187" si="2">"CT2019"&amp;"_"&amp;B132</f>
         <v>CT2019_131</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -10469,7 +11114,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_132</v>
@@ -10532,7 +11177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_133</v>
@@ -10598,9 +11243,3357 @@
         <v>495</v>
       </c>
     </row>
+    <row r="135" spans="1:21">
+      <c r="A135" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_134</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C135" t="s">
+        <v>524</v>
+      </c>
+      <c r="D135">
+        <v>48</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F135">
+        <v>125</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H135">
+        <v>48</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="J135">
+        <v>125</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>9</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S135">
+        <v>0.25</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
+      <c r="A136" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_135</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C136" t="s">
+        <v>524</v>
+      </c>
+      <c r="D136">
+        <v>48</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F136">
+        <v>125</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H136">
+        <v>48</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="J136">
+        <v>125</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P136" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>9</v>
+      </c>
+      <c r="R136" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S136">
+        <v>0.25</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21">
+      <c r="A137" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_136</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C137" t="s">
+        <v>524</v>
+      </c>
+      <c r="D137">
+        <v>48</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F137">
+        <v>125</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="H137">
+        <v>48</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="J137">
+        <v>125</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>9</v>
+      </c>
+      <c r="R137" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S137">
+        <v>0.25</v>
+      </c>
+      <c r="T137" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21">
+      <c r="A138" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_137</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C138" t="s">
+        <v>524</v>
+      </c>
+      <c r="D138">
+        <v>48</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F138">
+        <v>125</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="H138">
+        <v>48</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="J138">
+        <v>125</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>9</v>
+      </c>
+      <c r="R138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S138">
+        <v>0.25</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
+      <c r="A139" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_138</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C139" t="s">
+        <v>524</v>
+      </c>
+      <c r="D139">
+        <v>48</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F139">
+        <v>125</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="H139">
+        <v>48</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="J139">
+        <v>125</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>9</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S139">
+        <v>0.25</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21">
+      <c r="A140" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_139</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C140" t="s">
+        <v>524</v>
+      </c>
+      <c r="D140">
+        <v>48</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="F140">
+        <v>125</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H140">
+        <v>48</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="J140">
+        <v>125</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>9</v>
+      </c>
+      <c r="R140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S140">
+        <v>0.25</v>
+      </c>
+      <c r="T140" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21">
+      <c r="A141" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_140</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C141" t="s">
+        <v>524</v>
+      </c>
+      <c r="D141">
+        <v>48</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F141">
+        <v>125</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="H141">
+        <v>48</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="J141">
+        <v>125</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>9</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S141">
+        <v>0.25</v>
+      </c>
+      <c r="T141" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21">
+      <c r="A142" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_141</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C142" t="s">
+        <v>524</v>
+      </c>
+      <c r="D142">
+        <v>48</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F142">
+        <v>125</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="H142">
+        <v>48</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="J142">
+        <v>125</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>9</v>
+      </c>
+      <c r="R142" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S142">
+        <v>0.25</v>
+      </c>
+      <c r="T142" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
+      <c r="A143" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_142</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C143" t="s">
+        <v>524</v>
+      </c>
+      <c r="D143">
+        <v>48</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F143">
+        <v>125</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="H143">
+        <v>48</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="J143">
+        <v>125</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>9</v>
+      </c>
+      <c r="R143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S143">
+        <v>0.25</v>
+      </c>
+      <c r="T143" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
+      <c r="A144" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_143</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C144" t="s">
+        <v>524</v>
+      </c>
+      <c r="D144">
+        <v>48</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F144">
+        <v>125</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="H144">
+        <v>48</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="J144">
+        <v>125</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>9</v>
+      </c>
+      <c r="R144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S144">
+        <v>0.25</v>
+      </c>
+      <c r="T144" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
+      <c r="A145" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_144</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C145" t="s">
+        <v>524</v>
+      </c>
+      <c r="D145">
+        <v>48</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="F145">
+        <v>125</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H145">
+        <v>48</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="J145">
+        <v>125</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>9</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
+      <c r="A146" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_145</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C146" t="s">
+        <v>524</v>
+      </c>
+      <c r="D146">
+        <v>48</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F146">
+        <v>125</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H146">
+        <v>48</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="J146">
+        <v>125</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>9</v>
+      </c>
+      <c r="R146" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S146">
+        <v>0</v>
+      </c>
+      <c r="T146" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
+      <c r="A147" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_146</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C147" t="s">
+        <v>524</v>
+      </c>
+      <c r="D147">
+        <v>48</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F147">
+        <v>125</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H147">
+        <v>48</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="J147">
+        <v>125</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>9</v>
+      </c>
+      <c r="R147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S147">
+        <v>0</v>
+      </c>
+      <c r="T147" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
+      <c r="A148" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_147</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C148" t="s">
+        <v>524</v>
+      </c>
+      <c r="D148">
+        <v>48</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F148">
+        <v>125</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="H148">
+        <v>48</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="J148">
+        <v>125</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>9</v>
+      </c>
+      <c r="R148" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S148">
+        <v>0</v>
+      </c>
+      <c r="T148" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
+      <c r="A149" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_148</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C149" t="s">
+        <v>524</v>
+      </c>
+      <c r="D149">
+        <v>48</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="F149">
+        <v>125</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H149">
+        <v>48</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="J149">
+        <v>125</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>9</v>
+      </c>
+      <c r="R149" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S149">
+        <v>0</v>
+      </c>
+      <c r="T149" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
+      <c r="A150" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_149</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C150" t="s">
+        <v>524</v>
+      </c>
+      <c r="D150">
+        <v>48</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F150">
+        <v>125</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H150">
+        <v>48</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="J150">
+        <v>125</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>9</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S150">
+        <v>0</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
+      <c r="A151" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_150</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C151" t="s">
+        <v>524</v>
+      </c>
+      <c r="D151">
+        <v>48</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F151">
+        <v>125</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="H151">
+        <v>48</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="J151">
+        <v>125</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>9</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S151">
+        <v>0</v>
+      </c>
+      <c r="T151" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U151" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21">
+      <c r="A152" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_151</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C152" t="s">
+        <v>582</v>
+      </c>
+      <c r="D152">
+        <v>48</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F152">
+        <v>125</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="H152">
+        <v>48</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="J152">
+        <v>125</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>9</v>
+      </c>
+      <c r="R152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S152">
+        <v>0</v>
+      </c>
+      <c r="T152" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
+      <c r="A153" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_152</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C153" t="s">
+        <v>582</v>
+      </c>
+      <c r="D153">
+        <v>48</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F153">
+        <v>125</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="H153">
+        <v>48</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="J153">
+        <v>125</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>9</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+      <c r="T153" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21">
+      <c r="A154" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_153</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C154" t="s">
+        <v>582</v>
+      </c>
+      <c r="D154">
+        <v>48</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="F154">
+        <v>125</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H154">
+        <v>48</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="J154">
+        <v>125</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>9</v>
+      </c>
+      <c r="R154" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
+      <c r="A155" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_154</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C155" t="s">
+        <v>582</v>
+      </c>
+      <c r="D155">
+        <v>48</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F155">
+        <v>125</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="H155">
+        <v>48</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="J155">
+        <v>125</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>9</v>
+      </c>
+      <c r="R155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_155</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C156" t="s">
+        <v>582</v>
+      </c>
+      <c r="D156">
+        <v>48</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="F156">
+        <v>125</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="H156">
+        <v>48</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="J156">
+        <v>125</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>9</v>
+      </c>
+      <c r="R156" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S156">
+        <v>0.25</v>
+      </c>
+      <c r="T156" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_156</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C157" t="s">
+        <v>582</v>
+      </c>
+      <c r="D157">
+        <v>48</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F157">
+        <v>125</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H157">
+        <v>48</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="J157">
+        <v>125</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P157" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>9</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S157">
+        <v>0.25</v>
+      </c>
+      <c r="T157" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_157</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C158" t="s">
+        <v>582</v>
+      </c>
+      <c r="D158">
+        <v>48</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F158">
+        <v>125</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H158">
+        <v>48</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="J158">
+        <v>125</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>9</v>
+      </c>
+      <c r="R158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S158">
+        <v>0.25</v>
+      </c>
+      <c r="T158" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_158</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C159" t="s">
+        <v>582</v>
+      </c>
+      <c r="D159">
+        <v>48</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F159">
+        <v>125</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="H159">
+        <v>48</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="J159">
+        <v>125</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>9</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S159">
+        <v>0.25</v>
+      </c>
+      <c r="T159" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21">
+      <c r="A160" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_159</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C160" t="s">
+        <v>582</v>
+      </c>
+      <c r="D160">
+        <v>48</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="F160">
+        <v>125</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H160">
+        <v>48</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="J160">
+        <v>125</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>9</v>
+      </c>
+      <c r="R160" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S160">
+        <v>0.25</v>
+      </c>
+      <c r="T160" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
+      <c r="A161" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_160</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C161" t="s">
+        <v>582</v>
+      </c>
+      <c r="D161">
+        <v>48</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F161">
+        <v>125</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="H161">
+        <v>48</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="J161">
+        <v>125</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>9</v>
+      </c>
+      <c r="R161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S161">
+        <v>0.25</v>
+      </c>
+      <c r="T161" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
+      <c r="A162" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_161</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C162" t="s">
+        <v>582</v>
+      </c>
+      <c r="D162">
+        <v>48</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F162">
+        <v>125</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H162">
+        <v>48</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="J162">
+        <v>125</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>9</v>
+      </c>
+      <c r="R162" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S162">
+        <v>0.25</v>
+      </c>
+      <c r="T162" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
+      <c r="A163" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_162</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C163" t="s">
+        <v>582</v>
+      </c>
+      <c r="D163">
+        <v>48</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F163">
+        <v>125</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="H163">
+        <v>48</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="J163">
+        <v>125</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>9</v>
+      </c>
+      <c r="R163" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S163">
+        <v>0.25</v>
+      </c>
+      <c r="T163" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
+      <c r="A164" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_163</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C164" t="s">
+        <v>582</v>
+      </c>
+      <c r="D164">
+        <v>48</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F164">
+        <v>125</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="H164">
+        <v>48</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="J164">
+        <v>125</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>9</v>
+      </c>
+      <c r="R164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S164">
+        <v>0.25</v>
+      </c>
+      <c r="T164" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
+      <c r="A165" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_164</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C165" t="s">
+        <v>582</v>
+      </c>
+      <c r="D165">
+        <v>48</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F165">
+        <v>125</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="H165">
+        <v>48</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="J165">
+        <v>125</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>9</v>
+      </c>
+      <c r="R165" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S165">
+        <v>0.5</v>
+      </c>
+      <c r="T165" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
+      <c r="A166" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_165</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C166" t="s">
+        <v>582</v>
+      </c>
+      <c r="D166">
+        <v>48</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="F166">
+        <v>125</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H166">
+        <v>48</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="J166">
+        <v>125</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>9</v>
+      </c>
+      <c r="R166" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S166">
+        <v>0.5</v>
+      </c>
+      <c r="T166" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
+      <c r="A167" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_166</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C167" t="s">
+        <v>582</v>
+      </c>
+      <c r="D167">
+        <v>48</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F167">
+        <v>125</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H167">
+        <v>48</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="J167">
+        <v>125</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>9</v>
+      </c>
+      <c r="R167" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S167">
+        <v>1</v>
+      </c>
+      <c r="T167" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_167</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C168" t="s">
+        <v>582</v>
+      </c>
+      <c r="D168">
+        <v>48</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="F168">
+        <v>125</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="H168">
+        <v>48</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="J168">
+        <v>125</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>9</v>
+      </c>
+      <c r="R168" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S168">
+        <v>1</v>
+      </c>
+      <c r="T168" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_168</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C169" t="s">
+        <v>582</v>
+      </c>
+      <c r="D169">
+        <v>48</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F169">
+        <v>125</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H169">
+        <v>48</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="J169">
+        <v>125</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>9</v>
+      </c>
+      <c r="R169" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S169">
+        <v>1</v>
+      </c>
+      <c r="T169" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C170" t="s">
+        <v>582</v>
+      </c>
+      <c r="D170">
+        <v>48</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F170">
+        <v>125</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="H170">
+        <v>48</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="J170">
+        <v>125</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P170" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>9</v>
+      </c>
+      <c r="R170" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S170">
+        <v>1</v>
+      </c>
+      <c r="T170" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C171" t="s">
+        <v>582</v>
+      </c>
+      <c r="D171">
+        <v>48</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F171">
+        <v>125</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="H171">
+        <v>48</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="J171">
+        <v>125</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>9</v>
+      </c>
+      <c r="R171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S171">
+        <v>1</v>
+      </c>
+      <c r="T171" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U171" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_171</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="C172" t="s">
+        <v>665</v>
+      </c>
+      <c r="D172">
+        <v>48</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F172">
+        <v>125</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="H172">
+        <v>48</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="J172">
+        <v>125</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>9</v>
+      </c>
+      <c r="R172" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S172">
+        <v>1.5</v>
+      </c>
+      <c r="T172" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C173" t="s">
+        <v>665</v>
+      </c>
+      <c r="D173">
+        <v>48</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="F173">
+        <v>125</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H173">
+        <v>48</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="J173">
+        <v>125</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P173" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>9</v>
+      </c>
+      <c r="R173" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S173">
+        <v>1.5</v>
+      </c>
+      <c r="T173" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_173</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C174" t="s">
+        <v>665</v>
+      </c>
+      <c r="D174">
+        <v>48</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F174">
+        <v>125</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="H174">
+        <v>48</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="J174">
+        <v>125</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>9</v>
+      </c>
+      <c r="R174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S174">
+        <v>1.5</v>
+      </c>
+      <c r="T174" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_174</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C175" t="s">
+        <v>665</v>
+      </c>
+      <c r="D175">
+        <v>48</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F175">
+        <v>125</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="H175">
+        <v>48</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="J175">
+        <v>125</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P175" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>9</v>
+      </c>
+      <c r="R175" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S175">
+        <v>1.5</v>
+      </c>
+      <c r="T175" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C176" t="s">
+        <v>665</v>
+      </c>
+      <c r="D176">
+        <v>48</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F176">
+        <v>125</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="H176">
+        <v>48</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="J176">
+        <v>125</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>9</v>
+      </c>
+      <c r="R176" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S176">
+        <v>1.5</v>
+      </c>
+      <c r="T176" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
+      <c r="A177" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C177" t="s">
+        <v>665</v>
+      </c>
+      <c r="D177">
+        <v>48</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="F177">
+        <v>125</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H177">
+        <v>48</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="J177">
+        <v>125</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>9</v>
+      </c>
+      <c r="R177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S177">
+        <v>1.5</v>
+      </c>
+      <c r="T177" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C178" t="s">
+        <v>665</v>
+      </c>
+      <c r="D178">
+        <v>48</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F178">
+        <v>125</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="H178">
+        <v>48</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="J178">
+        <v>125</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M178">
+        <v>2</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>9</v>
+      </c>
+      <c r="R178" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S178">
+        <v>1.5</v>
+      </c>
+      <c r="T178" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="C179" t="s">
+        <v>665</v>
+      </c>
+      <c r="D179">
+        <v>48</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="F179">
+        <v>125</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H179">
+        <v>48</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="J179">
+        <v>125</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="O179" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>9</v>
+      </c>
+      <c r="R179" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S179">
+        <v>1.5</v>
+      </c>
+      <c r="T179" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C180" t="s">
+        <v>665</v>
+      </c>
+      <c r="D180">
+        <v>48</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F180">
+        <v>125</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="H180">
+        <v>48</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="J180">
+        <v>125</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P180" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>9</v>
+      </c>
+      <c r="R180" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S180">
+        <v>1.5</v>
+      </c>
+      <c r="T180" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_180</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="C181" t="s">
+        <v>665</v>
+      </c>
+      <c r="D181">
+        <v>48</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="F181">
+        <v>125</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="H181">
+        <v>48</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="J181">
+        <v>125</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>9</v>
+      </c>
+      <c r="R181" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S181">
+        <v>1</v>
+      </c>
+      <c r="T181" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_181</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C182" t="s">
+        <v>665</v>
+      </c>
+      <c r="D182">
+        <v>48</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F182">
+        <v>125</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H182">
+        <v>48</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="J182">
+        <v>125</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M182">
+        <v>2</v>
+      </c>
+      <c r="N182" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>9</v>
+      </c>
+      <c r="R182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S182">
+        <v>1</v>
+      </c>
+      <c r="T182" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_182</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="C183" t="s">
+        <v>665</v>
+      </c>
+      <c r="D183">
+        <v>48</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="F183">
+        <v>125</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H183">
+        <v>48</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="J183">
+        <v>125</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P183" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>9</v>
+      </c>
+      <c r="R183" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S183">
+        <v>1</v>
+      </c>
+      <c r="T183" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_183</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C184" t="s">
+        <v>665</v>
+      </c>
+      <c r="D184">
+        <v>48</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F184">
+        <v>125</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="H184">
+        <v>48</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="J184">
+        <v>125</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>9</v>
+      </c>
+      <c r="R184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S184">
+        <v>1</v>
+      </c>
+      <c r="T184" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_184</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="C185" t="s">
+        <v>665</v>
+      </c>
+      <c r="D185">
+        <v>48</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F185">
+        <v>125</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H185">
+        <v>48</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="J185">
+        <v>125</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P185" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>9</v>
+      </c>
+      <c r="R185" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S185">
+        <v>1</v>
+      </c>
+      <c r="T185" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_185</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C186" t="s">
+        <v>665</v>
+      </c>
+      <c r="D186">
+        <v>48</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F186">
+        <v>125</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="H186">
+        <v>48</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="J186">
+        <v>125</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>9</v>
+      </c>
+      <c r="R186" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S186">
+        <v>1</v>
+      </c>
+      <c r="T186" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_186</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C187" t="s">
+        <v>665</v>
+      </c>
+      <c r="D187">
+        <v>48</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="F187">
+        <v>125</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="H187">
+        <v>48</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="J187">
+        <v>125</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="O187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P187" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>9</v>
+      </c>
+      <c r="R187" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S187">
+        <v>1</v>
+      </c>
+      <c r="T187" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U187" t="s">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10617,29 +14610,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>187</v>
       </c>

--- a/data/taggingData/setData.xlsx
+++ b/data/taggingData/setData.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="819">
   <si>
     <t>set</t>
   </si>
@@ -2126,6 +2126,360 @@
   </si>
   <si>
     <t>STOP at 1515 48 50.359 and 125 32.152</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>23/8/2019</t>
+  </si>
+  <si>
+    <t>38.278</t>
+  </si>
+  <si>
+    <t>36.482</t>
+  </si>
+  <si>
+    <t>35.392</t>
+  </si>
+  <si>
+    <t>34.378</t>
+  </si>
+  <si>
+    <t>33.372</t>
+  </si>
+  <si>
+    <t>32.904</t>
+  </si>
+  <si>
+    <t>32.544</t>
+  </si>
+  <si>
+    <t>32.171</t>
+  </si>
+  <si>
+    <t>31.717</t>
+  </si>
+  <si>
+    <t>31.137</t>
+  </si>
+  <si>
+    <t>31.695</t>
+  </si>
+  <si>
+    <t>32.019</t>
+  </si>
+  <si>
+    <t>32.478</t>
+  </si>
+  <si>
+    <t>33.010</t>
+  </si>
+  <si>
+    <t>33.776</t>
+  </si>
+  <si>
+    <t>35.543</t>
+  </si>
+  <si>
+    <t>36.642</t>
+  </si>
+  <si>
+    <t>38.080</t>
+  </si>
+  <si>
+    <t>39.476</t>
+  </si>
+  <si>
+    <t>37.292</t>
+  </si>
+  <si>
+    <t>39.048</t>
+  </si>
+  <si>
+    <t>40.563</t>
+  </si>
+  <si>
+    <t>41.982</t>
+  </si>
+  <si>
+    <t>44.013</t>
+  </si>
+  <si>
+    <t>45.669</t>
+  </si>
+  <si>
+    <t>47.801</t>
+  </si>
+  <si>
+    <t>49.789</t>
+  </si>
+  <si>
+    <t>51.355</t>
+  </si>
+  <si>
+    <t>53.840</t>
+  </si>
+  <si>
+    <t>54.109</t>
+  </si>
+  <si>
+    <t>52.923</t>
+  </si>
+  <si>
+    <t>51.810</t>
+  </si>
+  <si>
+    <t>49.811</t>
+  </si>
+  <si>
+    <t>48.438</t>
+  </si>
+  <si>
+    <t>48.176</t>
+  </si>
+  <si>
+    <t>48.020</t>
+  </si>
+  <si>
+    <t>47.994</t>
+  </si>
+  <si>
+    <t>48.053</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>average of two lines (30 and 32)</t>
+  </si>
+  <si>
+    <t>average of two lines (30 and 35)</t>
+  </si>
+  <si>
+    <t>average of two lines (30 and 32); STOP at 1800 48 39.476 and 125 48.053</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>24/8/2019</t>
+  </si>
+  <si>
+    <t>39.982</t>
+  </si>
+  <si>
+    <t>39.143</t>
+  </si>
+  <si>
+    <t>39.126</t>
+  </si>
+  <si>
+    <t>40.049</t>
+  </si>
+  <si>
+    <t>41.452</t>
+  </si>
+  <si>
+    <t>42.558</t>
+  </si>
+  <si>
+    <t>43.061</t>
+  </si>
+  <si>
+    <t>43.795</t>
+  </si>
+  <si>
+    <t>44.894</t>
+  </si>
+  <si>
+    <t>45.290</t>
+  </si>
+  <si>
+    <t>45.479</t>
+  </si>
+  <si>
+    <t>46.484</t>
+  </si>
+  <si>
+    <t>47.432</t>
+  </si>
+  <si>
+    <t>47.796</t>
+  </si>
+  <si>
+    <t>47.545</t>
+  </si>
+  <si>
+    <t>47.733</t>
+  </si>
+  <si>
+    <t>48.673</t>
+  </si>
+  <si>
+    <t>49.087</t>
+  </si>
+  <si>
+    <t>49.407</t>
+  </si>
+  <si>
+    <t>48.654</t>
+  </si>
+  <si>
+    <t>46.994</t>
+  </si>
+  <si>
+    <t>46.626</t>
+  </si>
+  <si>
+    <t>47.533</t>
+  </si>
+  <si>
+    <t>49.161</t>
+  </si>
+  <si>
+    <t>50.890</t>
+  </si>
+  <si>
+    <t>50.951</t>
+  </si>
+  <si>
+    <t>48.950</t>
+  </si>
+  <si>
+    <t>47.255</t>
+  </si>
+  <si>
+    <t>44.600</t>
+  </si>
+  <si>
+    <t>43.084</t>
+  </si>
+  <si>
+    <t>41.040</t>
+  </si>
+  <si>
+    <t>38.117</t>
+  </si>
+  <si>
+    <t>36.243</t>
+  </si>
+  <si>
+    <t>34.551</t>
+  </si>
+  <si>
+    <t>average of two lines (28 and 30)</t>
+  </si>
+  <si>
+    <t>average of two lines (28 and 26)</t>
+  </si>
+  <si>
+    <t>average of two lines (28 and 26); sea lion stole fish</t>
+  </si>
+  <si>
+    <t>average of two lines (28 and 26); sea lion stole fish; STOP at 1430 48 48.673 and 125 34.551</t>
   </si>
 </sst>
 </file>
@@ -2178,9 +2532,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2314,7 +2744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="204">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2378,6 +2808,44 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2441,6 +2909,44 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -2720,11 +3226,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U187"/>
+  <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U188" sqref="U188"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U221" sqref="U221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2738,7 +3244,9 @@
     <col min="11" max="12" width="8.83203125" style="3"/>
     <col min="14" max="14" width="8.83203125" style="3"/>
     <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="17.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.1640625" customWidth="1"/>
     <col min="21" max="21" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11053,7 +11561,7 @@
     </row>
     <row r="132" spans="1:21">
       <c r="A132" t="str">
-        <f t="shared" ref="A132:A187" si="2">"CT2019"&amp;"_"&amp;B132</f>
+        <f t="shared" ref="A132:A195" si="2">"CT2019"&amp;"_"&amp;B132</f>
         <v>CT2019_131</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -11702,7 +12210,7 @@
         <v>531</v>
       </c>
       <c r="F142">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>549</v>
@@ -11765,7 +12273,7 @@
         <v>532</v>
       </c>
       <c r="F143">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>550</v>
@@ -11828,7 +12336,7 @@
         <v>533</v>
       </c>
       <c r="F144">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>551</v>
@@ -11891,7 +12399,7 @@
         <v>534</v>
       </c>
       <c r="F145">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>552</v>
@@ -14589,6 +15097,2229 @@
       </c>
       <c r="U187" t="s">
         <v>700</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_187</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C188" t="s">
+        <v>719</v>
+      </c>
+      <c r="D188">
+        <v>48</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F188">
+        <v>125</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H188">
+        <v>48</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="J188">
+        <v>125</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P188" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>9</v>
+      </c>
+      <c r="R188" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_188</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C189" t="s">
+        <v>719</v>
+      </c>
+      <c r="D189">
+        <v>48</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F189">
+        <v>125</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H189">
+        <v>48</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="J189">
+        <v>125</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O189" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P189" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>9</v>
+      </c>
+      <c r="R189" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_189</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C190" t="s">
+        <v>719</v>
+      </c>
+      <c r="D190">
+        <v>48</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F190">
+        <v>125</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="H190">
+        <v>48</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="J190">
+        <v>125</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O190" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P190" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>9</v>
+      </c>
+      <c r="R190" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_190</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C191" t="s">
+        <v>719</v>
+      </c>
+      <c r="D191">
+        <v>48</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F191">
+        <v>125</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="H191">
+        <v>48</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="J191">
+        <v>125</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="O191" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>9</v>
+      </c>
+      <c r="R191" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_191</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="C192" t="s">
+        <v>719</v>
+      </c>
+      <c r="D192">
+        <v>48</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F192">
+        <v>125</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="H192">
+        <v>48</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="J192">
+        <v>125</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M192">
+        <v>2</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="O192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P192" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>9</v>
+      </c>
+      <c r="R192" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_192</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="C193" t="s">
+        <v>719</v>
+      </c>
+      <c r="D193">
+        <v>48</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F193">
+        <v>125</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="H193">
+        <v>48</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="J193">
+        <v>125</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M193">
+        <v>2</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="O193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P193" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>9</v>
+      </c>
+      <c r="R193" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_193</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C194" t="s">
+        <v>719</v>
+      </c>
+      <c r="D194">
+        <v>48</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F194">
+        <v>125</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="H194">
+        <v>48</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="J194">
+        <v>125</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M194">
+        <v>2</v>
+      </c>
+      <c r="N194" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="O194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P194" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>9</v>
+      </c>
+      <c r="R194" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U194" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="str">
+        <f t="shared" si="2"/>
+        <v>CT2019_194</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C195" t="s">
+        <v>719</v>
+      </c>
+      <c r="D195">
+        <v>48</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F195">
+        <v>125</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="H195">
+        <v>48</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="J195">
+        <v>125</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="O195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>9</v>
+      </c>
+      <c r="R195" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U195" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="str">
+        <f t="shared" ref="A196:A221" si="3">"CT2019"&amp;"_"&amp;B196</f>
+        <v>CT2019_195</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C196" t="s">
+        <v>719</v>
+      </c>
+      <c r="D196">
+        <v>48</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F196">
+        <v>125</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="H196">
+        <v>48</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="J196">
+        <v>125</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M196">
+        <v>2</v>
+      </c>
+      <c r="N196" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="O196" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P196" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>9</v>
+      </c>
+      <c r="R196" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U196" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_196</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C197" t="s">
+        <v>719</v>
+      </c>
+      <c r="D197">
+        <v>48</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="F197">
+        <v>125</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="H197">
+        <v>48</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="J197">
+        <v>125</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="O197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P197" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>9</v>
+      </c>
+      <c r="R197" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U197" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_197</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C198" t="s">
+        <v>719</v>
+      </c>
+      <c r="D198">
+        <v>48</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F198">
+        <v>125</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H198">
+        <v>48</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="J198">
+        <v>125</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M198">
+        <v>2</v>
+      </c>
+      <c r="N198" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="O198" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>9</v>
+      </c>
+      <c r="R198" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S198">
+        <v>0</v>
+      </c>
+      <c r="T198" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U198" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_198</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C199" t="s">
+        <v>719</v>
+      </c>
+      <c r="D199">
+        <v>48</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="F199">
+        <v>125</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="H199">
+        <v>48</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="J199">
+        <v>125</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="O199" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P199" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>9</v>
+      </c>
+      <c r="R199" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S199">
+        <v>0</v>
+      </c>
+      <c r="T199" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U199" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
+      <c r="A200" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_199</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C200" t="s">
+        <v>719</v>
+      </c>
+      <c r="D200">
+        <v>48</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F200">
+        <v>125</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H200">
+        <v>48</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="J200">
+        <v>125</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="O200" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>9</v>
+      </c>
+      <c r="R200" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S200">
+        <v>0</v>
+      </c>
+      <c r="T200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U200" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
+      <c r="A201" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_200</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="C201" t="s">
+        <v>719</v>
+      </c>
+      <c r="D201">
+        <v>48</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F201">
+        <v>125</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="H201">
+        <v>48</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="J201">
+        <v>125</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="O201" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P201" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>9</v>
+      </c>
+      <c r="R201" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S201">
+        <v>0</v>
+      </c>
+      <c r="T201" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U201" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
+      <c r="A202" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_201</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C202" t="s">
+        <v>719</v>
+      </c>
+      <c r="D202">
+        <v>48</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F202">
+        <v>125</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H202">
+        <v>48</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="J202">
+        <v>125</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="O202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P202" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>9</v>
+      </c>
+      <c r="R202" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S202">
+        <v>0</v>
+      </c>
+      <c r="T202" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U202" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
+      <c r="A203" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_202</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="C203" t="s">
+        <v>719</v>
+      </c>
+      <c r="D203">
+        <v>48</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F203">
+        <v>125</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="H203">
+        <v>48</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="J203">
+        <v>125</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M203">
+        <v>2</v>
+      </c>
+      <c r="N203" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="O203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P203" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>9</v>
+      </c>
+      <c r="R203" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S203">
+        <v>0</v>
+      </c>
+      <c r="T203" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U203" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
+      <c r="A204" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_203</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C204" t="s">
+        <v>719</v>
+      </c>
+      <c r="D204">
+        <v>48</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F204">
+        <v>125</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="H204">
+        <v>48</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="J204">
+        <v>125</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="O204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P204" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>9</v>
+      </c>
+      <c r="R204" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S204">
+        <v>0</v>
+      </c>
+      <c r="T204" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U204" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
+      <c r="A205" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_204</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="C205" t="s">
+        <v>719</v>
+      </c>
+      <c r="D205">
+        <v>48</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="F205">
+        <v>125</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="H205">
+        <v>48</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="J205">
+        <v>125</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="O205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P205" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>9</v>
+      </c>
+      <c r="R205" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S205">
+        <v>0</v>
+      </c>
+      <c r="T205" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U205" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
+      <c r="A206" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_205</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C206" t="s">
+        <v>780</v>
+      </c>
+      <c r="D206">
+        <v>48</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F206">
+        <v>125</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="H206">
+        <v>48</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="J206">
+        <v>125</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P206" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>9</v>
+      </c>
+      <c r="R206" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S206">
+        <v>0.25</v>
+      </c>
+      <c r="T206" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U206" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
+      <c r="A207" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_206</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="C207" t="s">
+        <v>780</v>
+      </c>
+      <c r="D207">
+        <v>48</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F207">
+        <v>125</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="H207">
+        <v>48</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="J207">
+        <v>125</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="M207">
+        <v>2</v>
+      </c>
+      <c r="N207" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O207" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P207" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>9</v>
+      </c>
+      <c r="R207" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S207">
+        <v>0.25</v>
+      </c>
+      <c r="T207" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U207" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
+      <c r="A208" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_207</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C208" t="s">
+        <v>780</v>
+      </c>
+      <c r="D208">
+        <v>48</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F208">
+        <v>125</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H208">
+        <v>48</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="J208">
+        <v>125</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M208">
+        <v>2</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>9</v>
+      </c>
+      <c r="R208" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S208">
+        <v>0.25</v>
+      </c>
+      <c r="T208" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U208" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21">
+      <c r="A209" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_208</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="C209" t="s">
+        <v>780</v>
+      </c>
+      <c r="D209">
+        <v>48</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="F209">
+        <v>125</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H209">
+        <v>48</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="J209">
+        <v>125</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P209" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>9</v>
+      </c>
+      <c r="R209" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S209">
+        <v>0.25</v>
+      </c>
+      <c r="T209" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U209" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21">
+      <c r="A210" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_209</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C210" t="s">
+        <v>780</v>
+      </c>
+      <c r="D210">
+        <v>48</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F210">
+        <v>125</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="H210">
+        <v>48</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="J210">
+        <v>125</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P210" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>9</v>
+      </c>
+      <c r="R210" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S210">
+        <v>0.25</v>
+      </c>
+      <c r="T210" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U210" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
+      <c r="A211" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_210</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C211" t="s">
+        <v>780</v>
+      </c>
+      <c r="D211">
+        <v>48</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F211">
+        <v>125</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H211">
+        <v>48</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="J211">
+        <v>125</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M211">
+        <v>2</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P211" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>9</v>
+      </c>
+      <c r="R211" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S211">
+        <v>0.25</v>
+      </c>
+      <c r="T211" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U211" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
+      <c r="A212" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_211</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C212" t="s">
+        <v>780</v>
+      </c>
+      <c r="D212">
+        <v>48</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F212">
+        <v>125</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="H212">
+        <v>48</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="J212">
+        <v>125</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M212">
+        <v>2</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P212" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>9</v>
+      </c>
+      <c r="R212" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S212">
+        <v>0.25</v>
+      </c>
+      <c r="T212" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U212" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
+      <c r="A213" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_212</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="C213" t="s">
+        <v>780</v>
+      </c>
+      <c r="D213">
+        <v>48</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="F213">
+        <v>125</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="H213">
+        <v>48</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="J213">
+        <v>125</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O213" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P213" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>9</v>
+      </c>
+      <c r="R213" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S213">
+        <v>0</v>
+      </c>
+      <c r="T213" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U213" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
+      <c r="A214" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_213</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C214" t="s">
+        <v>780</v>
+      </c>
+      <c r="D214">
+        <v>48</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F214">
+        <v>125</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="H214">
+        <v>48</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="J214">
+        <v>125</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P214" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>9</v>
+      </c>
+      <c r="R214" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S214">
+        <v>0</v>
+      </c>
+      <c r="T214" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U214" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
+      <c r="A215" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_214</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="C215" t="s">
+        <v>780</v>
+      </c>
+      <c r="D215">
+        <v>48</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="F215">
+        <v>125</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="H215">
+        <v>48</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="J215">
+        <v>125</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="O215" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P215" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>9</v>
+      </c>
+      <c r="R215" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S215">
+        <v>0</v>
+      </c>
+      <c r="T215" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U215" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
+      <c r="A216" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_215</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C216" t="s">
+        <v>780</v>
+      </c>
+      <c r="D216">
+        <v>48</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F216">
+        <v>125</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="H216">
+        <v>48</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="J216">
+        <v>125</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P216" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>9</v>
+      </c>
+      <c r="R216" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S216">
+        <v>0</v>
+      </c>
+      <c r="T216" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
+      <c r="A217" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_216</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="C217" t="s">
+        <v>780</v>
+      </c>
+      <c r="D217">
+        <v>48</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="F217">
+        <v>125</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="H217">
+        <v>48</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="J217">
+        <v>125</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M217">
+        <v>2</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>9</v>
+      </c>
+      <c r="R217" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S217">
+        <v>0</v>
+      </c>
+      <c r="T217" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U217" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
+      <c r="A218" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_217</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C218" t="s">
+        <v>780</v>
+      </c>
+      <c r="D218">
+        <v>48</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F218">
+        <v>125</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="H218">
+        <v>48</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="J218">
+        <v>125</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M218">
+        <v>2</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P218" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>9</v>
+      </c>
+      <c r="R218" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S218">
+        <v>0</v>
+      </c>
+      <c r="T218" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U218" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21">
+      <c r="A219" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_218</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="C219" t="s">
+        <v>780</v>
+      </c>
+      <c r="D219">
+        <v>48</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="F219">
+        <v>125</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="H219">
+        <v>48</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="J219">
+        <v>125</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>9</v>
+      </c>
+      <c r="R219" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S219">
+        <v>0</v>
+      </c>
+      <c r="T219" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U219" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21">
+      <c r="A220" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_219</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C220" t="s">
+        <v>780</v>
+      </c>
+      <c r="D220">
+        <v>48</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F220">
+        <v>125</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="H220">
+        <v>48</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="J220">
+        <v>125</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P220" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>9</v>
+      </c>
+      <c r="R220" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U220" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21">
+      <c r="A221" t="str">
+        <f t="shared" si="3"/>
+        <v>CT2019_220</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C221" t="s">
+        <v>780</v>
+      </c>
+      <c r="D221">
+        <v>48</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="F221">
+        <v>125</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="H221">
+        <v>48</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="J221">
+        <v>125</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M221">
+        <v>2</v>
+      </c>
+      <c r="N221" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P221" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>9</v>
+      </c>
+      <c r="R221" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S221">
+        <v>0</v>
+      </c>
+      <c r="T221" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U221" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/data/taggingData/setData.xlsx
+++ b/data/taggingData/setData.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\chinDist\data\taggingData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17544"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -2485,7 +2490,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3218,7 +3223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3228,29 +3233,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U221" sqref="U221"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="3"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="7" max="7" width="8.83203125" style="3"/>
-    <col min="9" max="9" width="8.83203125" style="3"/>
-    <col min="11" max="12" width="8.83203125" style="3"/>
-    <col min="14" max="14" width="8.83203125" style="3"/>
-    <col min="17" max="17" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="3"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="3"/>
+    <col min="7" max="7" width="8.77734375" style="3"/>
+    <col min="9" max="9" width="8.77734375" style="3"/>
+    <col min="11" max="12" width="8.77734375" style="3"/>
+    <col min="14" max="14" width="8.77734375" style="3"/>
+    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.109375" customWidth="1"/>
     <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1640625" customWidth="1"/>
-    <col min="21" max="21" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.109375" customWidth="1"/>
+    <col min="21" max="21" width="37.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>"CT2019"&amp;"_"&amp;B2</f>
         <v>CT2019_001</v>
@@ -3381,7 +3386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>"CT2019"&amp;"_"&amp;B3</f>
         <v>CT2019_002</v>
@@ -3447,7 +3452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f t="shared" ref="A4:A67" si="0">"CT2019"&amp;"_"&amp;B4</f>
         <v>CT2019_003</v>
@@ -3510,7 +3515,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_004</v>
@@ -3576,7 +3581,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_005</v>
@@ -3642,7 +3647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_006</v>
@@ -3705,7 +3710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_007</v>
@@ -3768,7 +3773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_008</v>
@@ -3834,7 +3839,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_009</v>
@@ -3897,7 +3902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_010</v>
@@ -3960,7 +3965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_011</v>
@@ -4023,7 +4028,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_012</v>
@@ -4086,7 +4091,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_013</v>
@@ -4149,7 +4154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_014</v>
@@ -4212,7 +4217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_015</v>
@@ -4275,7 +4280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_016</v>
@@ -4338,7 +4343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_017</v>
@@ -4401,7 +4406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_018</v>
@@ -4464,7 +4469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_019</v>
@@ -4530,7 +4535,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_020</v>
@@ -4593,7 +4598,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_021</v>
@@ -4659,7 +4664,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_022</v>
@@ -4722,7 +4727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_023</v>
@@ -4785,7 +4790,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_024</v>
@@ -4848,7 +4853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_025</v>
@@ -4914,7 +4919,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_026</v>
@@ -4977,7 +4982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_027</v>
@@ -5040,7 +5045,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_028</v>
@@ -5103,7 +5108,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_029</v>
@@ -5166,7 +5171,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_030</v>
@@ -5229,7 +5234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_031</v>
@@ -5292,7 +5297,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_032</v>
@@ -5355,7 +5360,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_033</v>
@@ -5421,7 +5426,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_034</v>
@@ -5484,7 +5489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_035</v>
@@ -5547,7 +5552,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_036</v>
@@ -5610,7 +5615,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_037</v>
@@ -5673,7 +5678,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_038</v>
@@ -5736,7 +5741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_039</v>
@@ -5799,7 +5804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_040</v>
@@ -5862,7 +5867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_041</v>
@@ -5925,7 +5930,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_042</v>
@@ -5988,7 +5993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_043</v>
@@ -6051,7 +6056,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_044</v>
@@ -6114,7 +6119,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_045</v>
@@ -6180,7 +6185,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_046</v>
@@ -6243,7 +6248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_047</v>
@@ -6306,7 +6311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_048</v>
@@ -6369,7 +6374,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_049</v>
@@ -6432,7 +6437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_050</v>
@@ -6495,7 +6500,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_051</v>
@@ -6558,7 +6563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_052</v>
@@ -6621,7 +6626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_053</v>
@@ -6684,7 +6689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_054</v>
@@ -6750,7 +6755,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_055</v>
@@ -6813,7 +6818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_056</v>
@@ -6876,7 +6881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_057</v>
@@ -6939,7 +6944,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_058</v>
@@ -7002,7 +7007,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_059</v>
@@ -7065,7 +7070,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_060</v>
@@ -7131,7 +7136,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_061</v>
@@ -7194,7 +7199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_062</v>
@@ -7257,7 +7262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_063</v>
@@ -7320,7 +7325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_064</v>
@@ -7383,7 +7388,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_065</v>
@@ -7446,7 +7451,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>CT2019_066</v>
@@ -7509,7 +7514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
         <f t="shared" ref="A68:A131" si="1">"CT2019"&amp;"_"&amp;B68</f>
         <v>CT2019_067</v>
@@ -7572,7 +7577,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_068</v>
@@ -7635,7 +7640,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_069</v>
@@ -7698,7 +7703,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_070</v>
@@ -7761,7 +7766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_071</v>
@@ -7827,7 +7832,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_072</v>
@@ -7890,7 +7895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_073</v>
@@ -7953,7 +7958,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_074</v>
@@ -8016,7 +8021,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_075</v>
@@ -8079,7 +8084,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_076</v>
@@ -8145,7 +8150,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_077</v>
@@ -8211,7 +8216,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_078</v>
@@ -8274,7 +8279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_079</v>
@@ -8337,7 +8342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_080</v>
@@ -8400,7 +8405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_081</v>
@@ -8463,7 +8468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_082</v>
@@ -8526,7 +8531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_083</v>
@@ -8589,7 +8594,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_084</v>
@@ -8652,7 +8657,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_085</v>
@@ -8715,7 +8720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_086</v>
@@ -8778,7 +8783,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_087</v>
@@ -8841,7 +8846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_088</v>
@@ -8904,7 +8909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_089</v>
@@ -8967,7 +8972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_090</v>
@@ -9030,7 +9035,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_091</v>
@@ -9093,7 +9098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_092</v>
@@ -9156,7 +9161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_093</v>
@@ -9219,7 +9224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_094</v>
@@ -9282,7 +9287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_095</v>
@@ -9345,7 +9350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_096</v>
@@ -9408,7 +9413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_097</v>
@@ -9471,7 +9476,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_098</v>
@@ -9537,7 +9542,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_099</v>
@@ -9600,7 +9605,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_100</v>
@@ -9663,7 +9668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_101</v>
@@ -9726,7 +9731,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_102</v>
@@ -9789,7 +9794,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_103</v>
@@ -9852,7 +9857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_104</v>
@@ -9915,7 +9920,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_105</v>
@@ -9978,7 +9983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_106</v>
@@ -10041,7 +10046,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_107</v>
@@ -10104,7 +10109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_108</v>
@@ -10167,7 +10172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_109</v>
@@ -10233,7 +10238,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_110</v>
@@ -10296,7 +10301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_111</v>
@@ -10359,7 +10364,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_112</v>
@@ -10422,7 +10427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_113</v>
@@ -10485,7 +10490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_114</v>
@@ -10548,7 +10553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_115</v>
@@ -10611,7 +10616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_116</v>
@@ -10674,7 +10679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_117</v>
@@ -10740,7 +10745,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_118</v>
@@ -10803,7 +10808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_119</v>
@@ -10866,7 +10871,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_120</v>
@@ -10929,7 +10934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_121</v>
@@ -10992,7 +10997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_122</v>
@@ -11055,7 +11060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_123</v>
@@ -11118,7 +11123,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_124</v>
@@ -11181,7 +11186,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_125</v>
@@ -11244,7 +11249,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_126</v>
@@ -11307,7 +11312,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_127</v>
@@ -11370,7 +11375,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_128</v>
@@ -11433,7 +11438,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_129</v>
@@ -11496,7 +11501,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_130</v>
@@ -11559,7 +11564,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" t="str">
         <f t="shared" ref="A132:A195" si="2">"CT2019"&amp;"_"&amp;B132</f>
         <v>CT2019_131</v>
@@ -11622,7 +11627,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_132</v>
@@ -11685,7 +11690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_133</v>
@@ -11751,7 +11756,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_134</v>
@@ -11814,7 +11819,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_135</v>
@@ -11877,7 +11882,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_136</v>
@@ -11940,7 +11945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_137</v>
@@ -12003,7 +12008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_138</v>
@@ -12066,7 +12071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_139</v>
@@ -12129,7 +12134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_140</v>
@@ -12192,7 +12197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_141</v>
@@ -12255,7 +12260,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_142</v>
@@ -12318,7 +12323,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_143</v>
@@ -12381,7 +12386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_144</v>
@@ -12444,7 +12449,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_145</v>
@@ -12507,7 +12512,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_146</v>
@@ -12570,7 +12575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_147</v>
@@ -12633,7 +12638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_148</v>
@@ -12696,7 +12701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_149</v>
@@ -12759,7 +12764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_150</v>
@@ -12825,7 +12830,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_151</v>
@@ -12888,7 +12893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_152</v>
@@ -12951,7 +12956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_153</v>
@@ -13014,7 +13019,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_154</v>
@@ -13077,7 +13082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_155</v>
@@ -13140,7 +13145,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_156</v>
@@ -13203,7 +13208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_157</v>
@@ -13266,7 +13271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_158</v>
@@ -13329,7 +13334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_159</v>
@@ -13392,7 +13397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_160</v>
@@ -13455,7 +13460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_161</v>
@@ -13518,7 +13523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_162</v>
@@ -13581,7 +13586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_163</v>
@@ -13644,7 +13649,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_164</v>
@@ -13707,7 +13712,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_165</v>
@@ -13770,7 +13775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_166</v>
@@ -13833,7 +13838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_167</v>
@@ -13896,7 +13901,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_168</v>
@@ -13959,7 +13964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_169</v>
@@ -14022,7 +14027,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_170</v>
@@ -14088,7 +14093,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_171</v>
@@ -14151,7 +14156,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_172</v>
@@ -14214,7 +14219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_173</v>
@@ -14277,7 +14282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_174</v>
@@ -14340,7 +14345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_175</v>
@@ -14403,7 +14408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_176</v>
@@ -14466,7 +14471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_177</v>
@@ -14529,7 +14534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_178</v>
@@ -14592,7 +14597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_179</v>
@@ -14655,7 +14660,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_180</v>
@@ -14718,7 +14723,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_181</v>
@@ -14781,7 +14786,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_182</v>
@@ -14844,7 +14849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_183</v>
@@ -14907,7 +14912,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_184</v>
@@ -14970,7 +14975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_185</v>
@@ -15033,7 +15038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_186</v>
@@ -15099,7 +15104,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_187</v>
@@ -15162,7 +15167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_188</v>
@@ -15225,7 +15230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_189</v>
@@ -15288,7 +15293,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_190</v>
@@ -15351,7 +15356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_191</v>
@@ -15414,7 +15419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_192</v>
@@ -15477,7 +15482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_193</v>
@@ -15543,7 +15548,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" t="str">
         <f t="shared" si="2"/>
         <v>CT2019_194</v>
@@ -15609,7 +15614,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" t="str">
         <f t="shared" ref="A196:A221" si="3">"CT2019"&amp;"_"&amp;B196</f>
         <v>CT2019_195</v>
@@ -15675,7 +15680,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_196</v>
@@ -15741,7 +15746,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_197</v>
@@ -15807,7 +15812,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_198</v>
@@ -15873,7 +15878,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_199</v>
@@ -15939,7 +15944,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_200</v>
@@ -16005,7 +16010,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_201</v>
@@ -16071,7 +16076,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_202</v>
@@ -16137,7 +16142,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_203</v>
@@ -16203,7 +16208,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_204</v>
@@ -16269,7 +16274,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_205</v>
@@ -16335,7 +16340,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_206</v>
@@ -16401,7 +16406,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_207</v>
@@ -16467,7 +16472,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="209" spans="1:21">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_208</v>
@@ -16533,7 +16538,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="210" spans="1:21">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_209</v>
@@ -16599,7 +16604,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_210</v>
@@ -16665,7 +16670,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_211</v>
@@ -16731,7 +16736,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_212</v>
@@ -16797,7 +16802,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_213</v>
@@ -16863,7 +16868,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_214</v>
@@ -16929,7 +16934,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_215</v>
@@ -16992,7 +16997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_216</v>
@@ -17058,7 +17063,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_217</v>
@@ -17124,7 +17129,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_218</v>
@@ -17190,7 +17195,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_219</v>
@@ -17256,7 +17261,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" t="str">
         <f t="shared" si="3"/>
         <v>CT2019_220</v>
@@ -17341,29 +17346,29 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>

--- a/data/taggingData/setData.xlsx
+++ b/data/taggingData/setData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2773" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="822">
   <si>
     <t>set</t>
   </si>
@@ -891,9 +891,6 @@
     <t>35.120</t>
   </si>
   <si>
-    <t>25.092</t>
-  </si>
-  <si>
     <t>32.364</t>
   </si>
   <si>
@@ -981,9 +978,6 @@
     <t>50.979</t>
   </si>
   <si>
-    <t>61.127</t>
-  </si>
-  <si>
     <t>51.520</t>
   </si>
   <si>
@@ -2494,6 +2488,12 @@
   </si>
   <si>
     <t>46.437</t>
+  </si>
+  <si>
+    <t>CHECK START LAT/LONG</t>
+  </si>
+  <si>
+    <t>CHECK START LONG</t>
   </si>
 </sst>
 </file>
@@ -3242,9 +3242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U114" sqref="U114"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3275,28 +3275,28 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="F1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>497</v>
-      </c>
       <c r="H1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="J1" t="s">
         <v>491</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="J1" t="s">
-        <v>493</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>79</v>
       </c>
       <c r="J17">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>87</v>
@@ -4382,7 +4382,7 @@
         <v>80</v>
       </c>
       <c r="J18">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>88</v>
@@ -4445,7 +4445,7 @@
         <v>81</v>
       </c>
       <c r="J19">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>89</v>
@@ -4508,7 +4508,7 @@
         <v>82</v>
       </c>
       <c r="J20">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>85</v>
@@ -4571,10 +4571,10 @@
         <v>48</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J21">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>90</v>
@@ -4622,7 +4622,7 @@
         <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F22">
         <v>125</v>
@@ -4637,7 +4637,7 @@
         <v>83</v>
       </c>
       <c r="J22">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>91</v>
@@ -4670,7 +4670,7 @@
         <v>39</v>
       </c>
       <c r="U22" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -4703,7 +4703,7 @@
         <v>84</v>
       </c>
       <c r="J23">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>92</v>
@@ -4766,7 +4766,7 @@
         <v>85</v>
       </c>
       <c r="J24">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>93</v>
@@ -4829,7 +4829,7 @@
         <v>86</v>
       </c>
       <c r="J25">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>94</v>
@@ -4889,13 +4889,13 @@
         <v>48</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J26">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>42</v>
@@ -5392,17 +5392,17 @@
       <c r="G34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H34">
-        <v>48</v>
+      <c r="H34" t="s">
+        <v>10</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J34">
-        <v>125</v>
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>10</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>179</v>
@@ -6155,13 +6155,13 @@
         <v>48</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J46">
         <v>125</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>185</v>
@@ -6731,7 +6731,7 @@
         <v>125</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L55" s="3" t="s">
         <v>182</v>
@@ -7106,13 +7106,13 @@
         <v>48</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J61">
         <v>125</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L61" s="3" t="s">
         <v>67</v>
@@ -7181,7 +7181,7 @@
         <v>278</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M62">
         <v>2</v>
@@ -7394,7 +7394,7 @@
         <v>1.5</v>
       </c>
       <c r="T65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
@@ -7646,7 +7646,7 @@
         <v>2</v>
       </c>
       <c r="T69" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
@@ -7745,7 +7745,7 @@
         <v>125</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>287</v>
+        <v>515</v>
       </c>
       <c r="L71" s="3" t="s">
         <v>182</v>
@@ -7796,7 +7796,7 @@
         <v>125</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H72">
         <v>48</v>
@@ -7808,7 +7808,7 @@
         <v>125</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>101</v>
@@ -7823,7 +7823,7 @@
         <v>10</v>
       </c>
       <c r="P72" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q72" t="s">
         <v>9</v>
@@ -7838,7 +7838,7 @@
         <v>37</v>
       </c>
       <c r="U72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
@@ -7862,7 +7862,7 @@
         <v>125</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H73">
         <v>48</v>
@@ -7874,7 +7874,7 @@
         <v>125</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L73" s="3" t="s">
         <v>34</v>
@@ -7925,7 +7925,7 @@
         <v>125</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H74">
         <v>48</v>
@@ -8000,7 +8000,7 @@
         <v>125</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L75" s="3" t="s">
         <v>184</v>
@@ -8051,7 +8051,7 @@
         <v>125</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H76">
         <v>48</v>
@@ -8063,7 +8063,7 @@
         <v>125</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>44</v>
@@ -8114,7 +8114,7 @@
         <v>125</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H77">
         <v>48</v>
@@ -8126,7 +8126,7 @@
         <v>125</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>66</v>
@@ -8156,7 +8156,7 @@
         <v>37</v>
       </c>
       <c r="U77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
@@ -8180,19 +8180,19 @@
         <v>125</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H78">
         <v>48</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J78">
         <v>125</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>67</v>
@@ -8222,7 +8222,7 @@
         <v>37</v>
       </c>
       <c r="U78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
@@ -8231,43 +8231,43 @@
         <v>CT2019_078</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" t="s">
         <v>299</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79">
+        <v>48</v>
+      </c>
+      <c r="E79" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D79">
-        <v>48</v>
-      </c>
-      <c r="E79" s="3" t="s">
+      <c r="F79">
+        <v>125</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F79">
-        <v>125</v>
-      </c>
-      <c r="G79" s="3" t="s">
+      <c r="H79">
+        <v>48</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J79">
+        <v>125</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="H79">
-        <v>48</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J79">
-        <v>125</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="L79" s="3" t="s">
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="M79">
-        <v>2</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="O79" s="3" t="s">
         <v>10</v>
@@ -8294,43 +8294,43 @@
         <v>CT2019_079</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D80">
         <v>48</v>
       </c>
       <c r="E80" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F80">
+        <v>125</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H80">
+        <v>48</v>
+      </c>
+      <c r="I80" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="F80">
-        <v>125</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="H80">
-        <v>48</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>306</v>
-      </c>
       <c r="J80">
         <v>125</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M80">
         <v>2</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>10</v>
@@ -8351,40 +8351,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_080</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D81">
         <v>48</v>
       </c>
       <c r="E81" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F81">
+        <v>125</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H81">
+        <v>48</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F81">
-        <v>125</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H81">
-        <v>48</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>307</v>
-      </c>
       <c r="J81">
         <v>125</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>239</v>
@@ -8393,7 +8393,7 @@
         <v>2</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>10</v>
@@ -8414,40 +8414,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_081</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D82">
         <v>48</v>
       </c>
       <c r="E82" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F82">
+        <v>125</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H82">
+        <v>48</v>
+      </c>
+      <c r="I82" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F82">
-        <v>125</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H82">
-        <v>48</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>308</v>
-      </c>
       <c r="J82">
         <v>125</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>95</v>
@@ -8456,7 +8456,7 @@
         <v>2</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>10</v>
@@ -8477,40 +8477,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_082</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D83">
         <v>48</v>
       </c>
       <c r="E83" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F83">
+        <v>125</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H83">
+        <v>48</v>
+      </c>
+      <c r="I83" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="F83">
-        <v>125</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="H83">
-        <v>48</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>309</v>
-      </c>
       <c r="J83">
         <v>125</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>96</v>
@@ -8519,7 +8519,7 @@
         <v>2</v>
       </c>
       <c r="N83" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>10</v>
@@ -8540,40 +8540,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_083</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D84">
         <v>48</v>
       </c>
       <c r="E84" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F84">
+        <v>125</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H84">
+        <v>48</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F84">
-        <v>125</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="H84">
-        <v>48</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>310</v>
-      </c>
       <c r="J84">
         <v>125</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>97</v>
@@ -8582,7 +8582,7 @@
         <v>2</v>
       </c>
       <c r="N84" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>10</v>
@@ -8603,40 +8603,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_084</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D85">
         <v>48</v>
       </c>
       <c r="E85" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F85">
+        <v>125</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H85">
+        <v>48</v>
+      </c>
+      <c r="I85" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F85">
-        <v>125</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="H85">
-        <v>48</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>311</v>
-      </c>
       <c r="J85">
         <v>125</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>20</v>
@@ -8666,40 +8666,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_085</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C86" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D86">
         <v>48</v>
       </c>
       <c r="E86" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F86">
+        <v>125</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H86">
+        <v>48</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F86">
-        <v>125</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="H86">
-        <v>48</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>312</v>
-      </c>
       <c r="J86">
         <v>125</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>240</v>
@@ -8729,40 +8729,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_086</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C87" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D87">
         <v>48</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F87">
+        <v>125</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="H87">
+        <v>48</v>
+      </c>
+      <c r="I87" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F87">
-        <v>125</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="H87">
-        <v>48</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>313</v>
-      </c>
       <c r="J87">
         <v>125</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>241</v>
@@ -8792,40 +8792,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_087</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D88">
         <v>48</v>
       </c>
       <c r="E88" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F88">
+        <v>125</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H88">
+        <v>48</v>
+      </c>
+      <c r="I88" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="F88">
-        <v>125</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="H88">
-        <v>48</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>314</v>
-      </c>
       <c r="J88">
         <v>125</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>28</v>
@@ -8854,41 +8854,44 @@
       <c r="T88" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U88" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_088</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D89">
         <v>48</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F89">
+        <v>125</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="H89">
+        <v>48</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F89">
-        <v>125</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="H89">
-        <v>48</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="J89">
         <v>125</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>182</v>
@@ -8918,40 +8921,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_089</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D90">
         <v>48</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F90">
+        <v>125</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H90">
+        <v>48</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="F90">
-        <v>125</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="H90">
-        <v>48</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>316</v>
-      </c>
       <c r="J90">
         <v>125</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>101</v>
@@ -8981,40 +8984,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_090</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C91" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D91">
         <v>48</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F91">
         <v>125</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H91">
         <v>48</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>317</v>
+        <v>514</v>
       </c>
       <c r="J91">
         <v>125</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>34</v>
@@ -9044,40 +9047,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_091</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C92" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D92">
         <v>48</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F92">
         <v>125</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H92">
         <v>48</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J92">
         <v>125</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>183</v>
@@ -9107,40 +9110,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_092</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C93" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D93">
         <v>48</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F93">
         <v>125</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H93">
         <v>48</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J93">
         <v>125</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>184</v>
@@ -9170,40 +9173,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_093</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D94">
         <v>48</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F94">
         <v>125</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H94">
         <v>48</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J94">
         <v>125</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>44</v>
@@ -9233,40 +9236,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_094</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D95">
         <v>48</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F95">
         <v>125</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H95">
         <v>48</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J95">
         <v>125</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>66</v>
@@ -9296,40 +9299,40 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_095</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D96">
         <v>48</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F96">
         <v>125</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H96">
         <v>48</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J96">
         <v>125</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>67</v>
@@ -9365,34 +9368,34 @@
         <v>CT2019_096</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D97">
         <v>48</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F97">
         <v>125</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H97">
         <v>48</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J97">
         <v>125</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L97" s="3" t="s">
         <v>68</v>
@@ -9428,34 +9431,34 @@
         <v>CT2019_097</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D98">
         <v>48</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F98">
         <v>125</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H98">
         <v>48</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J98">
         <v>125</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L98" s="3" t="s">
         <v>69</v>
@@ -9491,34 +9494,34 @@
         <v>CT2019_098</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C99" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D99">
         <v>48</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F99">
         <v>125</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H99">
         <v>48</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J99">
         <v>125</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L99" s="3" t="s">
         <v>185</v>
@@ -9548,7 +9551,7 @@
         <v>74</v>
       </c>
       <c r="U99" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.3">
@@ -9557,43 +9560,43 @@
         <v>CT2019_099</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C100" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100">
+        <v>48</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C100" t="s">
+      <c r="F100">
+        <v>125</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H100">
+        <v>48</v>
+      </c>
+      <c r="I100" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D100">
-        <v>48</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F100">
-        <v>125</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H100">
-        <v>48</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="J100">
         <v>125</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M100">
         <v>2</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>10</v>
@@ -9620,34 +9623,34 @@
         <v>CT2019_100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C101" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101">
+        <v>48</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D101">
-        <v>48</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>369</v>
-      </c>
       <c r="F101">
         <v>125</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H101">
         <v>48</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="J101">
         <v>125</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>96</v>
@@ -9656,7 +9659,7 @@
         <v>2</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>10</v>
@@ -9683,34 +9686,34 @@
         <v>CT2019_101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C102" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D102">
         <v>48</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F102">
         <v>125</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H102">
         <v>48</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J102">
         <v>125</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>175</v>
@@ -9719,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>10</v>
@@ -9746,34 +9749,34 @@
         <v>CT2019_102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C103" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D103">
         <v>48</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F103">
         <v>125</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H103">
         <v>48</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J103">
         <v>125</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L103" s="3" t="s">
         <v>179</v>
@@ -9782,7 +9785,7 @@
         <v>2</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O103" s="3" t="s">
         <v>10</v>
@@ -9809,34 +9812,34 @@
         <v>CT2019_103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D104">
         <v>48</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F104">
         <v>125</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H104">
         <v>48</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J104">
         <v>125</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L104" s="3" t="s">
         <v>23</v>
@@ -9845,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>10</v>
@@ -9872,43 +9875,43 @@
         <v>CT2019_104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C105" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D105">
         <v>48</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F105">
         <v>125</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H105">
         <v>48</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J105">
         <v>125</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M105">
         <v>2</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O105" s="3" t="s">
         <v>10</v>
@@ -9935,43 +9938,43 @@
         <v>CT2019_105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C106" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D106">
         <v>48</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F106">
         <v>125</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H106">
         <v>48</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J106">
         <v>125</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M106">
         <v>2</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O106" s="3" t="s">
         <v>10</v>
@@ -9998,34 +10001,34 @@
         <v>CT2019_106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D107">
         <v>48</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F107">
         <v>125</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H107">
         <v>48</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="J107">
         <v>125</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L107" s="3" t="s">
         <v>31</v>
@@ -10034,7 +10037,7 @@
         <v>2</v>
       </c>
       <c r="N107" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O107" s="3" t="s">
         <v>10</v>
@@ -10061,34 +10064,34 @@
         <v>CT2019_107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C108" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D108">
         <v>48</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F108">
         <v>125</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H108">
         <v>48</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="J108">
         <v>125</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L108" s="3" t="s">
         <v>101</v>
@@ -10097,7 +10100,7 @@
         <v>2</v>
       </c>
       <c r="N108" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O108" s="3" t="s">
         <v>10</v>
@@ -10124,34 +10127,34 @@
         <v>CT2019_108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C109" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D109">
         <v>48</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F109">
         <v>125</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H109">
         <v>48</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J109">
         <v>125</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L109" s="3" t="s">
         <v>34</v>
@@ -10160,7 +10163,7 @@
         <v>2</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O109" s="3" t="s">
         <v>10</v>
@@ -10187,34 +10190,34 @@
         <v>CT2019_109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C110" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D110">
         <v>48</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F110">
         <v>125</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H110">
         <v>48</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J110">
         <v>125</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>183</v>
@@ -10223,7 +10226,7 @@
         <v>2</v>
       </c>
       <c r="N110" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O110" s="3" t="s">
         <v>10</v>
@@ -10244,7 +10247,7 @@
         <v>74</v>
       </c>
       <c r="U110" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.3">
@@ -10253,43 +10256,43 @@
         <v>CT2019_110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C111" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D111">
         <v>48</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F111">
         <v>125</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H111">
         <v>48</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J111">
         <v>125</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M111">
         <v>2</v>
       </c>
       <c r="N111" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O111" s="3" t="s">
         <v>10</v>
@@ -10310,7 +10313,7 @@
         <v>40</v>
       </c>
       <c r="U111" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
@@ -10319,43 +10322,43 @@
         <v>CT2019_111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C112" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D112">
         <v>48</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F112">
         <v>125</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="H112">
         <v>48</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J112">
         <v>125</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M112">
         <v>2</v>
       </c>
       <c r="N112" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O112" s="3" t="s">
         <v>10</v>
@@ -10376,7 +10379,7 @@
         <v>40</v>
       </c>
       <c r="U112" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
@@ -10385,43 +10388,43 @@
         <v>CT2019_112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C113" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D113">
         <v>48</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F113">
         <v>125</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H113">
         <v>48</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J113">
         <v>125</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M113">
         <v>2</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O113" s="3" t="s">
         <v>10</v>
@@ -10448,43 +10451,43 @@
         <v>CT2019_113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C114" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D114">
         <v>48</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F114">
         <v>125</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="H114">
         <v>48</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="J114">
         <v>125</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M114">
         <v>2</v>
       </c>
       <c r="N114" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="O114" s="3" t="s">
         <v>10</v>
@@ -10505,7 +10508,7 @@
         <v>74</v>
       </c>
       <c r="U114" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
@@ -10514,43 +10517,43 @@
         <v>CT2019_114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C115" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D115">
         <v>48</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F115">
         <v>125</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H115">
         <v>48</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J115">
         <v>125</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M115">
         <v>2</v>
       </c>
       <c r="N115" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O115" s="3" t="s">
         <v>10</v>
@@ -10577,43 +10580,43 @@
         <v>CT2019_115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C116" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D116">
         <v>48</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F116">
         <v>125</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H116">
         <v>48</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="J116">
         <v>125</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M116">
         <v>2</v>
       </c>
       <c r="N116" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>10</v>
@@ -10640,43 +10643,43 @@
         <v>CT2019_116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C117" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D117">
         <v>48</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F117">
         <v>125</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="H117">
         <v>48</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="J117">
         <v>125</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M117">
         <v>2</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O117" s="3" t="s">
         <v>10</v>
@@ -10697,7 +10700,7 @@
         <v>74</v>
       </c>
       <c r="U117" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
@@ -10706,43 +10709,43 @@
         <v>CT2019_117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C118" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D118">
         <v>48</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F118">
         <v>125</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H118">
         <v>48</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J118">
         <v>125</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="L118" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="M118">
+        <v>2</v>
+      </c>
+      <c r="N118" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="M118">
-        <v>2</v>
-      </c>
-      <c r="N118" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="O118" s="3" t="s">
         <v>10</v>
@@ -10763,7 +10766,7 @@
         <v>74</v>
       </c>
       <c r="U118" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.3">
@@ -10772,43 +10775,43 @@
         <v>CT2019_118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C119" t="s">
+        <v>452</v>
+      </c>
+      <c r="D119">
+        <v>48</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F119">
+        <v>125</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="H119">
+        <v>48</v>
+      </c>
+      <c r="I119" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D119">
-        <v>48</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="F119">
-        <v>125</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="H119">
-        <v>48</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="J119">
         <v>125</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="M119">
         <v>2</v>
       </c>
       <c r="N119" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O119" s="3" t="s">
         <v>10</v>
@@ -10835,43 +10838,43 @@
         <v>CT2019_119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C120" t="s">
+        <v>452</v>
+      </c>
+      <c r="D120">
+        <v>48</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="D120">
-        <v>48</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="F120">
         <v>125</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H120">
         <v>48</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J120">
         <v>125</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M120">
         <v>2</v>
       </c>
       <c r="N120" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O120" s="3" t="s">
         <v>10</v>
@@ -10898,43 +10901,43 @@
         <v>CT2019_120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C121" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D121">
         <v>48</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F121">
         <v>125</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H121">
         <v>48</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J121">
         <v>125</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M121">
         <v>2</v>
       </c>
       <c r="N121" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O121" s="3" t="s">
         <v>10</v>
@@ -10961,34 +10964,34 @@
         <v>CT2019_121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C122" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D122">
         <v>48</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F122">
         <v>125</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H122">
         <v>48</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J122">
         <v>125</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="L122" s="3" t="s">
         <v>239</v>
@@ -10997,7 +11000,7 @@
         <v>2</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>10</v>
@@ -11024,34 +11027,34 @@
         <v>CT2019_122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C123" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D123">
         <v>48</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F123">
         <v>125</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="H123">
         <v>48</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J123">
         <v>125</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L123" s="3" t="s">
         <v>95</v>
@@ -11060,7 +11063,7 @@
         <v>2</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O123" s="3" t="s">
         <v>10</v>
@@ -11087,34 +11090,34 @@
         <v>CT2019_123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C124" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D124">
         <v>48</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F124">
         <v>125</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H124">
         <v>48</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="J124">
         <v>125</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="L124" s="3" t="s">
         <v>96</v>
@@ -11123,7 +11126,7 @@
         <v>2</v>
       </c>
       <c r="N124" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>10</v>
@@ -11150,34 +11153,34 @@
         <v>CT2019_124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C125" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D125">
         <v>48</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F125">
         <v>125</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H125">
         <v>48</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J125">
         <v>125</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L125" s="3" t="s">
         <v>97</v>
@@ -11186,7 +11189,7 @@
         <v>2</v>
       </c>
       <c r="N125" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O125" s="3" t="s">
         <v>10</v>
@@ -11204,7 +11207,7 @@
         <v>0.25</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.3">
@@ -11213,34 +11216,34 @@
         <v>CT2019_125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C126" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D126">
         <v>48</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F126">
         <v>125</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H126">
         <v>48</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J126">
         <v>125</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="L126" s="3" t="s">
         <v>20</v>
@@ -11249,7 +11252,7 @@
         <v>2</v>
       </c>
       <c r="N126" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O126" s="3" t="s">
         <v>10</v>
@@ -11276,34 +11279,34 @@
         <v>CT2019_126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C127" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D127">
         <v>48</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F127">
         <v>125</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H127">
         <v>48</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J127">
         <v>125</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L127" s="3" t="s">
         <v>240</v>
@@ -11312,7 +11315,7 @@
         <v>2</v>
       </c>
       <c r="N127" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O127" s="3" t="s">
         <v>10</v>
@@ -11339,34 +11342,34 @@
         <v>CT2019_127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C128" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D128">
         <v>48</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F128">
         <v>125</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H128">
         <v>48</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J128">
         <v>125</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L128" s="3" t="s">
         <v>241</v>
@@ -11375,7 +11378,7 @@
         <v>2</v>
       </c>
       <c r="N128" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O128" s="3" t="s">
         <v>10</v>
@@ -11393,7 +11396,7 @@
         <v>0.5</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
@@ -11402,34 +11405,34 @@
         <v>CT2019_128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C129" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D129">
         <v>48</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F129">
         <v>125</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H129">
         <v>48</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="J129">
         <v>125</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L129" s="3" t="s">
         <v>28</v>
@@ -11438,7 +11441,7 @@
         <v>2</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O129" s="3" t="s">
         <v>10</v>
@@ -11456,7 +11459,7 @@
         <v>0.5</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
@@ -11465,34 +11468,34 @@
         <v>CT2019_129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C130" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D130">
         <v>48</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F130">
         <v>125</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="H130">
         <v>48</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J130">
         <v>125</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L130" s="3" t="s">
         <v>182</v>
@@ -11501,7 +11504,7 @@
         <v>2</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="O130" s="3" t="s">
         <v>10</v>
@@ -11519,7 +11522,7 @@
         <v>0.5</v>
       </c>
       <c r="T130" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
@@ -11528,34 +11531,34 @@
         <v>CT2019_130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C131" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D131">
         <v>48</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F131">
         <v>125</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H131">
         <v>48</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J131">
         <v>125</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="L131" s="3" t="s">
         <v>101</v>
@@ -11564,7 +11567,7 @@
         <v>2</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O131" s="3" t="s">
         <v>10</v>
@@ -11582,7 +11585,7 @@
         <v>0.5</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
@@ -11591,34 +11594,34 @@
         <v>CT2019_131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C132" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D132">
         <v>48</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F132">
         <v>125</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H132">
         <v>48</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J132">
         <v>125</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="L132" s="3" t="s">
         <v>34</v>
@@ -11627,7 +11630,7 @@
         <v>2</v>
       </c>
       <c r="N132" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>10</v>
@@ -11654,34 +11657,34 @@
         <v>CT2019_132</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C133" t="s">
         <v>452</v>
       </c>
-      <c r="C133" t="s">
-        <v>454</v>
-      </c>
       <c r="D133">
         <v>48</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F133">
         <v>125</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H133">
         <v>48</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J133">
         <v>125</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L133" s="3" t="s">
         <v>183</v>
@@ -11690,7 +11693,7 @@
         <v>2</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O133" s="3" t="s">
         <v>10</v>
@@ -11717,34 +11720,34 @@
         <v>CT2019_133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C134" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D134">
         <v>48</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F134">
         <v>125</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H134">
         <v>48</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J134">
         <v>125</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L134" s="3" t="s">
         <v>184</v>
@@ -11753,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O134" s="3" t="s">
         <v>10</v>
@@ -11762,7 +11765,7 @@
         <v>11</v>
       </c>
       <c r="Q134" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="R134" s="3" t="s">
         <v>25</v>
@@ -11774,7 +11777,7 @@
         <v>37</v>
       </c>
       <c r="U134" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.3">
@@ -11783,43 +11786,43 @@
         <v>CT2019_134</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C135" t="s">
+        <v>517</v>
+      </c>
+      <c r="D135">
+        <v>48</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C135" t="s">
+      <c r="F135">
+        <v>125</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H135">
+        <v>48</v>
+      </c>
+      <c r="I135" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D135">
-        <v>48</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="F135">
-        <v>125</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="H135">
-        <v>48</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="J135">
         <v>125</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M135">
         <v>2</v>
       </c>
       <c r="N135" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O135" s="3" t="s">
         <v>10</v>
@@ -11846,34 +11849,34 @@
         <v>CT2019_135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C136" t="s">
+        <v>517</v>
+      </c>
+      <c r="D136">
+        <v>48</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="D136">
-        <v>48</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="F136">
         <v>125</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H136">
         <v>48</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J136">
         <v>125</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="L136" s="3" t="s">
         <v>95</v>
@@ -11882,7 +11885,7 @@
         <v>2</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O136" s="3" t="s">
         <v>10</v>
@@ -11909,34 +11912,34 @@
         <v>CT2019_136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C137" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D137">
         <v>48</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F137">
         <v>125</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H137">
         <v>48</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="J137">
         <v>125</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>96</v>
@@ -11945,7 +11948,7 @@
         <v>2</v>
       </c>
       <c r="N137" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O137" s="3" t="s">
         <v>10</v>
@@ -11972,34 +11975,34 @@
         <v>CT2019_137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C138" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D138">
         <v>48</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F138">
         <v>125</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H138">
         <v>48</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="J138">
         <v>125</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>97</v>
@@ -12008,7 +12011,7 @@
         <v>2</v>
       </c>
       <c r="N138" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O138" s="3" t="s">
         <v>10</v>
@@ -12027,6 +12030,9 @@
       </c>
       <c r="T138" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="U138" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
@@ -12035,34 +12041,34 @@
         <v>CT2019_138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C139" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D139">
         <v>48</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F139">
         <v>125</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H139">
         <v>48</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J139">
         <v>125</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L139" s="3" t="s">
         <v>20</v>
@@ -12071,7 +12077,7 @@
         <v>2</v>
       </c>
       <c r="N139" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O139" s="3" t="s">
         <v>10</v>
@@ -12098,34 +12104,34 @@
         <v>CT2019_139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C140" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D140">
         <v>48</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F140">
         <v>125</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H140">
         <v>48</v>
       </c>
       <c r="I140" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J140">
         <v>125</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>240</v>
@@ -12134,7 +12140,7 @@
         <v>2</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O140" s="3" t="s">
         <v>10</v>
@@ -12161,34 +12167,34 @@
         <v>CT2019_140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C141" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D141">
         <v>48</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F141">
         <v>125</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H141">
         <v>48</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="J141">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="L141" s="3" t="s">
         <v>241</v>
@@ -12197,7 +12203,7 @@
         <v>2</v>
       </c>
       <c r="N141" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O141" s="3" t="s">
         <v>10</v>
@@ -12224,34 +12230,34 @@
         <v>CT2019_141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C142" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D142">
         <v>48</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F142">
         <v>126</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H142">
         <v>48</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="J142">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>28</v>
@@ -12260,7 +12266,7 @@
         <v>2</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O142" s="3" t="s">
         <v>10</v>
@@ -12287,34 +12293,34 @@
         <v>CT2019_142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C143" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D143">
         <v>48</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F143">
         <v>126</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H143">
         <v>48</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J143">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>182</v>
@@ -12323,7 +12329,7 @@
         <v>2</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O143" s="3" t="s">
         <v>10</v>
@@ -12350,34 +12356,34 @@
         <v>CT2019_143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C144" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D144">
         <v>48</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F144">
         <v>126</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H144">
         <v>48</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J144">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>101</v>
@@ -12386,7 +12392,7 @@
         <v>2</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O144" s="3" t="s">
         <v>10</v>
@@ -12413,34 +12419,34 @@
         <v>CT2019_144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C145" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D145">
         <v>48</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F145">
         <v>126</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H145">
         <v>48</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="J145">
         <v>125</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>34</v>
@@ -12449,7 +12455,7 @@
         <v>2</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O145" s="3" t="s">
         <v>10</v>
@@ -12476,34 +12482,34 @@
         <v>CT2019_145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C146" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D146">
         <v>48</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F146">
         <v>125</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H146">
         <v>48</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J146">
         <v>125</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>183</v>
@@ -12512,7 +12518,7 @@
         <v>2</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O146" s="3" t="s">
         <v>10</v>
@@ -12539,34 +12545,34 @@
         <v>CT2019_146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C147" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D147">
         <v>48</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F147">
         <v>125</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H147">
         <v>48</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="J147">
         <v>125</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L147" s="3" t="s">
         <v>184</v>
@@ -12575,7 +12581,7 @@
         <v>2</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O147" s="3" t="s">
         <v>10</v>
@@ -12602,34 +12608,34 @@
         <v>CT2019_147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C148" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D148">
         <v>48</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F148">
         <v>125</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H148">
         <v>48</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="J148">
         <v>125</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="L148" s="3" t="s">
         <v>44</v>
@@ -12638,7 +12644,7 @@
         <v>2</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O148" s="3" t="s">
         <v>10</v>
@@ -12665,34 +12671,34 @@
         <v>CT2019_148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C149" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D149">
         <v>48</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F149">
         <v>125</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H149">
         <v>48</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="J149">
         <v>125</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>66</v>
@@ -12701,7 +12707,7 @@
         <v>2</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O149" s="3" t="s">
         <v>10</v>
@@ -12728,34 +12734,34 @@
         <v>CT2019_149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C150" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D150">
         <v>48</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F150">
         <v>125</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H150">
         <v>48</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J150">
         <v>125</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="L150" s="3" t="s">
         <v>67</v>
@@ -12764,7 +12770,7 @@
         <v>2</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>10</v>
@@ -12791,34 +12797,34 @@
         <v>CT2019_150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C151" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D151">
         <v>48</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F151">
         <v>125</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H151">
         <v>48</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J151">
         <v>125</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="L151" s="3" t="s">
         <v>68</v>
@@ -12827,7 +12833,7 @@
         <v>2</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O151" s="3" t="s">
         <v>10</v>
@@ -12848,7 +12854,7 @@
         <v>74</v>
       </c>
       <c r="U151" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.3">
@@ -12857,43 +12863,43 @@
         <v>CT2019_151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C152" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D152">
         <v>48</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F152">
         <v>125</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H152">
         <v>48</v>
       </c>
       <c r="I152" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J152">
         <v>125</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M152">
         <v>2</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O152" s="3" t="s">
         <v>10</v>
@@ -12920,43 +12926,43 @@
         <v>CT2019_152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C153" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D153">
         <v>48</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F153">
         <v>125</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H153">
         <v>48</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J153">
         <v>125</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M153">
         <v>2</v>
       </c>
       <c r="N153" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O153" s="3" t="s">
         <v>10</v>
@@ -12983,34 +12989,34 @@
         <v>CT2019_153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C154" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D154">
         <v>48</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F154">
         <v>125</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H154">
         <v>48</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J154">
         <v>125</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L154" s="3" t="s">
         <v>239</v>
@@ -13019,7 +13025,7 @@
         <v>2</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>10</v>
@@ -13046,34 +13052,34 @@
         <v>CT2019_154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C155" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D155">
         <v>48</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F155">
         <v>125</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H155">
         <v>48</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J155">
         <v>125</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L155" s="3" t="s">
         <v>95</v>
@@ -13082,7 +13088,7 @@
         <v>2</v>
       </c>
       <c r="N155" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O155" s="3" t="s">
         <v>10</v>
@@ -13109,34 +13115,34 @@
         <v>CT2019_155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C156" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D156">
         <v>48</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F156">
         <v>125</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H156">
         <v>48</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="J156">
         <v>125</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="L156" s="3" t="s">
         <v>96</v>
@@ -13145,7 +13151,7 @@
         <v>2</v>
       </c>
       <c r="N156" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O156" s="3" t="s">
         <v>10</v>
@@ -13172,34 +13178,34 @@
         <v>CT2019_156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C157" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D157">
         <v>48</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F157">
         <v>125</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H157">
         <v>48</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="J157">
         <v>125</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L157" s="3" t="s">
         <v>97</v>
@@ -13208,13 +13214,13 @@
         <v>2</v>
       </c>
       <c r="N157" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O157" s="3" t="s">
         <v>10</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="Q157" t="s">
         <v>9</v>
@@ -13235,34 +13241,34 @@
         <v>CT2019_157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C158" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D158">
         <v>48</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F158">
         <v>125</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H158">
         <v>48</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J158">
         <v>125</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L158" s="3" t="s">
         <v>20</v>
@@ -13271,7 +13277,7 @@
         <v>2</v>
       </c>
       <c r="N158" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O158" s="3" t="s">
         <v>10</v>
@@ -13298,34 +13304,34 @@
         <v>CT2019_158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C159" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D159">
         <v>48</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F159">
         <v>125</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H159">
         <v>48</v>
       </c>
       <c r="I159" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J159">
         <v>125</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L159" s="3" t="s">
         <v>240</v>
@@ -13334,7 +13340,7 @@
         <v>2</v>
       </c>
       <c r="N159" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O159" s="3" t="s">
         <v>10</v>
@@ -13361,34 +13367,34 @@
         <v>CT2019_159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C160" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D160">
         <v>48</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F160">
         <v>125</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H160">
         <v>48</v>
       </c>
       <c r="I160" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J160">
         <v>125</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L160" s="3" t="s">
         <v>241</v>
@@ -13397,7 +13403,7 @@
         <v>2</v>
       </c>
       <c r="N160" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O160" s="3" t="s">
         <v>10</v>
@@ -13424,34 +13430,34 @@
         <v>CT2019_160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C161" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D161">
         <v>48</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F161">
         <v>125</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H161">
         <v>48</v>
       </c>
       <c r="I161" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="J161">
         <v>125</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="L161" s="3" t="s">
         <v>28</v>
@@ -13460,7 +13466,7 @@
         <v>2</v>
       </c>
       <c r="N161" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O161" s="3" t="s">
         <v>10</v>
@@ -13487,34 +13493,34 @@
         <v>CT2019_161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C162" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D162">
         <v>48</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F162">
         <v>125</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H162">
         <v>48</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J162">
         <v>125</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L162" s="3" t="s">
         <v>182</v>
@@ -13523,7 +13529,7 @@
         <v>2</v>
       </c>
       <c r="N162" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O162" s="3" t="s">
         <v>10</v>
@@ -13550,34 +13556,34 @@
         <v>CT2019_162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C163" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D163">
         <v>48</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F163">
         <v>125</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H163">
         <v>48</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J163">
         <v>125</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L163" s="3" t="s">
         <v>101</v>
@@ -13586,7 +13592,7 @@
         <v>2</v>
       </c>
       <c r="N163" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O163" s="3" t="s">
         <v>10</v>
@@ -13613,34 +13619,34 @@
         <v>CT2019_163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C164" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D164">
         <v>48</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F164">
         <v>125</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H164">
         <v>48</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="J164">
         <v>125</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="L164" s="3" t="s">
         <v>34</v>
@@ -13649,7 +13655,7 @@
         <v>2</v>
       </c>
       <c r="N164" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O164" s="3" t="s">
         <v>10</v>
@@ -13676,34 +13682,34 @@
         <v>CT2019_164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C165" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D165">
         <v>48</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F165">
         <v>125</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H165">
         <v>48</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="J165">
         <v>125</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L165" s="3" t="s">
         <v>183</v>
@@ -13712,7 +13718,7 @@
         <v>2</v>
       </c>
       <c r="N165" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O165" s="3" t="s">
         <v>10</v>
@@ -13739,34 +13745,34 @@
         <v>CT2019_165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C166" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D166">
         <v>48</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F166">
         <v>125</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H166">
         <v>48</v>
       </c>
       <c r="I166" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="J166">
         <v>125</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>184</v>
@@ -13775,7 +13781,7 @@
         <v>2</v>
       </c>
       <c r="N166" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O166" s="3" t="s">
         <v>10</v>
@@ -13802,34 +13808,34 @@
         <v>CT2019_166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C167" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D167">
         <v>48</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F167">
         <v>125</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H167">
         <v>48</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="J167">
         <v>125</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>44</v>
@@ -13838,7 +13844,7 @@
         <v>2</v>
       </c>
       <c r="N167" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O167" s="3" t="s">
         <v>10</v>
@@ -13865,34 +13871,34 @@
         <v>CT2019_167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C168" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D168">
         <v>48</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F168">
         <v>125</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H168">
         <v>48</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="J168">
         <v>125</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L168" s="3" t="s">
         <v>66</v>
@@ -13901,7 +13907,7 @@
         <v>2</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O168" s="3" t="s">
         <v>10</v>
@@ -13928,34 +13934,34 @@
         <v>CT2019_168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C169" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D169">
         <v>48</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F169">
         <v>125</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H169">
         <v>48</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="J169">
         <v>125</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L169" s="3" t="s">
         <v>67</v>
@@ -13964,7 +13970,7 @@
         <v>2</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O169" s="3" t="s">
         <v>10</v>
@@ -13991,34 +13997,34 @@
         <v>CT2019_169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C170" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D170">
         <v>48</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F170">
         <v>125</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H170">
         <v>48</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="J170">
         <v>125</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L170" s="3" t="s">
         <v>68</v>
@@ -14027,7 +14033,7 @@
         <v>2</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O170" s="3" t="s">
         <v>10</v>
@@ -14054,34 +14060,34 @@
         <v>CT2019_170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C171" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D171">
         <v>48</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F171">
         <v>125</v>
       </c>
       <c r="G171" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="H171">
+        <v>48</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="J171">
+        <v>125</v>
+      </c>
+      <c r="K171" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="H171">
-        <v>48</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="J171">
-        <v>125</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="L171" s="3" t="s">
         <v>69</v>
@@ -14090,7 +14096,7 @@
         <v>2</v>
       </c>
       <c r="N171" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O171" s="3" t="s">
         <v>10</v>
@@ -14111,7 +14117,7 @@
         <v>38</v>
       </c>
       <c r="U171" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.3">
@@ -14120,34 +14126,34 @@
         <v>CT2019_171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C172" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D172">
         <v>48</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F172">
         <v>125</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H172">
         <v>48</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="J172">
         <v>125</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>176</v>
@@ -14156,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="N172" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O172" s="3" t="s">
         <v>10</v>
@@ -14177,7 +14183,7 @@
         <v>40</v>
       </c>
       <c r="U172" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
@@ -14186,34 +14192,34 @@
         <v>CT2019_172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C173" t="s">
+        <v>657</v>
+      </c>
+      <c r="D173">
+        <v>48</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F173">
+        <v>125</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H173">
+        <v>48</v>
+      </c>
+      <c r="I173" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D173">
-        <v>48</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="F173">
-        <v>125</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="H173">
-        <v>48</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>661</v>
-      </c>
       <c r="J173">
         <v>125</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>239</v>
@@ -14222,7 +14228,7 @@
         <v>2</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>10</v>
@@ -14249,34 +14255,34 @@
         <v>CT2019_173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C174" t="s">
+        <v>657</v>
+      </c>
+      <c r="D174">
+        <v>48</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="D174">
-        <v>48</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>661</v>
-      </c>
       <c r="F174">
         <v>125</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H174">
         <v>48</v>
       </c>
       <c r="I174" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="J174">
         <v>125</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>95</v>
@@ -14285,7 +14291,7 @@
         <v>2</v>
       </c>
       <c r="N174" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O174" s="3" t="s">
         <v>10</v>
@@ -14312,34 +14318,34 @@
         <v>CT2019_174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C175" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D175">
         <v>48</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F175">
         <v>125</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H175">
         <v>48</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J175">
         <v>125</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>96</v>
@@ -14348,7 +14354,7 @@
         <v>2</v>
       </c>
       <c r="N175" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O175" s="3" t="s">
         <v>10</v>
@@ -14375,34 +14381,34 @@
         <v>CT2019_175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C176" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D176">
         <v>48</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F176">
         <v>125</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H176">
         <v>48</v>
       </c>
       <c r="I176" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J176">
         <v>125</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>97</v>
@@ -14411,7 +14417,7 @@
         <v>2</v>
       </c>
       <c r="N176" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O176" s="3" t="s">
         <v>10</v>
@@ -14438,34 +14444,34 @@
         <v>CT2019_176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C177" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D177">
         <v>48</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F177">
         <v>125</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H177">
         <v>48</v>
       </c>
       <c r="I177" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J177">
         <v>125</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>20</v>
@@ -14474,7 +14480,7 @@
         <v>2</v>
       </c>
       <c r="N177" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O177" s="3" t="s">
         <v>10</v>
@@ -14501,34 +14507,34 @@
         <v>CT2019_177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C178" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D178">
         <v>48</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F178">
         <v>125</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H178">
         <v>48</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J178">
         <v>125</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>240</v>
@@ -14537,7 +14543,7 @@
         <v>2</v>
       </c>
       <c r="N178" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O178" s="3" t="s">
         <v>10</v>
@@ -14564,34 +14570,34 @@
         <v>CT2019_178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C179" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D179">
         <v>48</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F179">
         <v>125</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H179">
         <v>48</v>
       </c>
       <c r="I179" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J179">
         <v>125</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>241</v>
@@ -14600,7 +14606,7 @@
         <v>2</v>
       </c>
       <c r="N179" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O179" s="3" t="s">
         <v>10</v>
@@ -14627,34 +14633,34 @@
         <v>CT2019_179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C180" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D180">
         <v>48</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F180">
         <v>125</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H180">
         <v>48</v>
       </c>
       <c r="I180" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J180">
         <v>125</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>28</v>
@@ -14663,7 +14669,7 @@
         <v>2</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O180" s="3" t="s">
         <v>10</v>
@@ -14690,34 +14696,34 @@
         <v>CT2019_180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C181" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D181">
         <v>48</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="F181">
         <v>125</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H181">
         <v>48</v>
       </c>
       <c r="I181" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J181">
         <v>125</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>182</v>
@@ -14726,7 +14732,7 @@
         <v>2</v>
       </c>
       <c r="N181" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O181" s="3" t="s">
         <v>10</v>
@@ -14753,34 +14759,34 @@
         <v>CT2019_181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C182" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D182">
         <v>48</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F182">
         <v>125</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H182">
         <v>48</v>
       </c>
       <c r="I182" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="J182">
         <v>125</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>101</v>
@@ -14789,7 +14795,7 @@
         <v>2</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O182" s="3" t="s">
         <v>10</v>
@@ -14816,34 +14822,34 @@
         <v>CT2019_182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C183" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D183">
         <v>48</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="F183">
         <v>125</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H183">
         <v>48</v>
       </c>
       <c r="I183" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="J183">
         <v>125</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>34</v>
@@ -14852,7 +14858,7 @@
         <v>2</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O183" s="3" t="s">
         <v>10</v>
@@ -14879,34 +14885,34 @@
         <v>CT2019_183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C184" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D184">
         <v>48</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F184">
         <v>125</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H184">
         <v>48</v>
       </c>
       <c r="I184" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="J184">
         <v>125</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>183</v>
@@ -14915,7 +14921,7 @@
         <v>2</v>
       </c>
       <c r="N184" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O184" s="3" t="s">
         <v>10</v>
@@ -14942,34 +14948,34 @@
         <v>CT2019_184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C185" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D185">
         <v>48</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F185">
         <v>125</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H185">
         <v>48</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="J185">
         <v>125</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>184</v>
@@ -14978,7 +14984,7 @@
         <v>2</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O185" s="3" t="s">
         <v>10</v>
@@ -15005,34 +15011,34 @@
         <v>CT2019_185</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C186" t="s">
         <v>657</v>
       </c>
-      <c r="C186" t="s">
-        <v>659</v>
-      </c>
       <c r="D186">
         <v>48</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F186">
         <v>125</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H186">
         <v>48</v>
       </c>
       <c r="I186" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="J186">
         <v>125</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>44</v>
@@ -15041,7 +15047,7 @@
         <v>2</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O186" s="3" t="s">
         <v>10</v>
@@ -15068,34 +15074,34 @@
         <v>CT2019_186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C187" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D187">
         <v>48</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F187">
         <v>125</v>
       </c>
       <c r="G187" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="H187">
+        <v>48</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="J187">
+        <v>125</v>
+      </c>
+      <c r="K187" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="H187">
-        <v>48</v>
-      </c>
-      <c r="I187" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="J187">
-        <v>125</v>
-      </c>
-      <c r="K187" s="3" t="s">
-        <v>692</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>66</v>
@@ -15104,7 +15110,7 @@
         <v>2</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O187" s="3" t="s">
         <v>10</v>
@@ -15125,7 +15131,7 @@
         <v>38</v>
       </c>
       <c r="U187" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
@@ -15134,34 +15140,34 @@
         <v>CT2019_187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C188" t="s">
+        <v>710</v>
+      </c>
+      <c r="D188">
+        <v>48</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F188">
+        <v>125</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="H188">
+        <v>48</v>
+      </c>
+      <c r="I188" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D188">
-        <v>48</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="F188">
-        <v>125</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="H188">
-        <v>48</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="J188">
         <v>125</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>19</v>
@@ -15170,7 +15176,7 @@
         <v>2</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>10</v>
@@ -15197,34 +15203,34 @@
         <v>CT2019_188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C189" t="s">
+        <v>710</v>
+      </c>
+      <c r="D189">
+        <v>48</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="D189">
-        <v>48</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>714</v>
-      </c>
       <c r="F189">
         <v>125</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H189">
         <v>48</v>
       </c>
       <c r="I189" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J189">
         <v>125</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>20</v>
@@ -15233,7 +15239,7 @@
         <v>2</v>
       </c>
       <c r="N189" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O189" s="3" t="s">
         <v>10</v>
@@ -15260,34 +15266,34 @@
         <v>CT2019_189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C190" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D190">
         <v>48</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F190">
         <v>125</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H190">
         <v>48</v>
       </c>
       <c r="I190" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J190">
         <v>125</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>240</v>
@@ -15296,7 +15302,7 @@
         <v>2</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O190" s="3" t="s">
         <v>10</v>
@@ -15323,34 +15329,34 @@
         <v>CT2019_190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C191" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D191">
         <v>48</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F191">
         <v>125</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="H191">
         <v>48</v>
       </c>
       <c r="I191" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J191">
         <v>125</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>241</v>
@@ -15359,7 +15365,7 @@
         <v>2</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O191" s="3" t="s">
         <v>10</v>
@@ -15386,34 +15392,34 @@
         <v>CT2019_191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C192" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D192">
         <v>48</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F192">
         <v>125</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H192">
         <v>48</v>
       </c>
       <c r="I192" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J192">
         <v>125</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>28</v>
@@ -15422,7 +15428,7 @@
         <v>2</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O192" s="3" t="s">
         <v>10</v>
@@ -15449,34 +15455,34 @@
         <v>CT2019_192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C193" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D193">
         <v>48</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F193">
         <v>125</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H193">
         <v>48</v>
       </c>
       <c r="I193" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J193">
         <v>125</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>182</v>
@@ -15485,7 +15491,7 @@
         <v>2</v>
       </c>
       <c r="N193" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O193" s="3" t="s">
         <v>10</v>
@@ -15512,34 +15518,34 @@
         <v>CT2019_193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C194" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D194">
         <v>48</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F194">
         <v>125</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H194">
         <v>48</v>
       </c>
       <c r="I194" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J194">
         <v>125</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>101</v>
@@ -15548,7 +15554,7 @@
         <v>2</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O194" s="3" t="s">
         <v>10</v>
@@ -15569,7 +15575,7 @@
         <v>37</v>
       </c>
       <c r="U194" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.3">
@@ -15578,34 +15584,34 @@
         <v>CT2019_194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C195" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D195">
         <v>48</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F195">
         <v>125</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H195">
         <v>48</v>
       </c>
       <c r="I195" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J195">
         <v>125</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>34</v>
@@ -15614,7 +15620,7 @@
         <v>2</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O195" s="3" t="s">
         <v>10</v>
@@ -15635,7 +15641,7 @@
         <v>37</v>
       </c>
       <c r="U195" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
@@ -15644,34 +15650,34 @@
         <v>CT2019_195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C196" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D196">
         <v>48</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F196">
         <v>125</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H196">
         <v>48</v>
       </c>
       <c r="I196" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J196">
         <v>125</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>183</v>
@@ -15680,7 +15686,7 @@
         <v>2</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O196" s="3" t="s">
         <v>10</v>
@@ -15701,7 +15707,7 @@
         <v>37</v>
       </c>
       <c r="U196" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
@@ -15710,34 +15716,34 @@
         <v>CT2019_196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C197" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D197">
         <v>48</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F197">
         <v>125</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="H197">
         <v>48</v>
       </c>
       <c r="I197" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="J197">
         <v>125</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>184</v>
@@ -15746,7 +15752,7 @@
         <v>2</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O197" s="3" t="s">
         <v>10</v>
@@ -15767,7 +15773,7 @@
         <v>37</v>
       </c>
       <c r="U197" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.3">
@@ -15776,34 +15782,34 @@
         <v>CT2019_197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C198" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D198">
         <v>48</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F198">
         <v>125</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H198">
         <v>48</v>
       </c>
       <c r="I198" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="J198">
         <v>125</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>44</v>
@@ -15812,7 +15818,7 @@
         <v>2</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O198" s="3" t="s">
         <v>10</v>
@@ -15833,7 +15839,7 @@
         <v>37</v>
       </c>
       <c r="U198" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.3">
@@ -15842,34 +15848,34 @@
         <v>CT2019_198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C199" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D199">
         <v>48</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F199">
         <v>125</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H199">
         <v>48</v>
       </c>
       <c r="I199" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="J199">
         <v>125</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>66</v>
@@ -15878,7 +15884,7 @@
         <v>2</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>10</v>
@@ -15899,7 +15905,7 @@
         <v>37</v>
       </c>
       <c r="U199" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.3">
@@ -15908,34 +15914,34 @@
         <v>CT2019_199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C200" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D200">
         <v>48</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F200">
         <v>125</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H200">
         <v>48</v>
       </c>
       <c r="I200" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="J200">
         <v>125</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>67</v>
@@ -15944,7 +15950,7 @@
         <v>2</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O200" s="3" t="s">
         <v>10</v>
@@ -15965,7 +15971,7 @@
         <v>37</v>
       </c>
       <c r="U200" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
@@ -15974,34 +15980,34 @@
         <v>CT2019_200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C201" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D201">
         <v>48</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F201">
         <v>125</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="H201">
         <v>48</v>
       </c>
       <c r="I201" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="J201">
         <v>125</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>68</v>
@@ -16010,7 +16016,7 @@
         <v>2</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O201" s="3" t="s">
         <v>10</v>
@@ -16031,7 +16037,7 @@
         <v>37</v>
       </c>
       <c r="U201" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
@@ -16040,34 +16046,34 @@
         <v>CT2019_201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C202" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D202">
         <v>48</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F202">
         <v>125</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H202">
         <v>48</v>
       </c>
       <c r="I202" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J202">
         <v>125</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L202" s="3" t="s">
         <v>69</v>
@@ -16076,7 +16082,7 @@
         <v>2</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O202" s="3" t="s">
         <v>10</v>
@@ -16097,7 +16103,7 @@
         <v>37</v>
       </c>
       <c r="U202" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.3">
@@ -16106,34 +16112,34 @@
         <v>CT2019_202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C203" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D203">
         <v>48</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F203">
         <v>125</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H203">
         <v>48</v>
       </c>
       <c r="I203" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J203">
         <v>125</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>185</v>
@@ -16142,7 +16148,7 @@
         <v>2</v>
       </c>
       <c r="N203" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O203" s="3" t="s">
         <v>10</v>
@@ -16163,7 +16169,7 @@
         <v>37</v>
       </c>
       <c r="U203" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.3">
@@ -16172,34 +16178,34 @@
         <v>CT2019_203</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C204" t="s">
         <v>710</v>
       </c>
-      <c r="C204" t="s">
-        <v>712</v>
-      </c>
       <c r="D204">
         <v>48</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F204">
         <v>125</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H204">
         <v>48</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J204">
         <v>125</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>71</v>
@@ -16208,7 +16214,7 @@
         <v>2</v>
       </c>
       <c r="N204" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O204" s="3" t="s">
         <v>10</v>
@@ -16229,7 +16235,7 @@
         <v>38</v>
       </c>
       <c r="U204" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
@@ -16238,43 +16244,43 @@
         <v>CT2019_204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C205" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D205">
         <v>48</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F205">
         <v>125</v>
       </c>
       <c r="G205" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="H205">
+        <v>48</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="J205">
+        <v>125</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="L205" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="H205">
-        <v>48</v>
-      </c>
-      <c r="I205" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="J205">
-        <v>125</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="L205" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="M205">
-        <v>2</v>
-      </c>
-      <c r="N205" s="3" t="s">
-        <v>752</v>
       </c>
       <c r="O205" s="3" t="s">
         <v>10</v>
@@ -16295,7 +16301,7 @@
         <v>37</v>
       </c>
       <c r="U205" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
@@ -16304,43 +16310,43 @@
         <v>CT2019_205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C206" t="s">
+        <v>771</v>
+      </c>
+      <c r="D206">
+        <v>48</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F206">
+        <v>125</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H206">
+        <v>48</v>
+      </c>
+      <c r="I206" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D206">
-        <v>48</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="F206">
-        <v>125</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="H206">
-        <v>48</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>775</v>
-      </c>
       <c r="J206">
         <v>125</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M206">
         <v>2</v>
       </c>
       <c r="N206" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O206" s="3" t="s">
         <v>10</v>
@@ -16361,7 +16367,7 @@
         <v>38</v>
       </c>
       <c r="U206" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
@@ -16370,43 +16376,43 @@
         <v>CT2019_206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C207" t="s">
+        <v>771</v>
+      </c>
+      <c r="D207">
+        <v>48</v>
+      </c>
+      <c r="E207" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="D207">
-        <v>48</v>
-      </c>
-      <c r="E207" s="3" t="s">
-        <v>775</v>
-      </c>
       <c r="F207">
         <v>125</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H207">
         <v>48</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="J207">
         <v>125</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M207">
         <v>2</v>
       </c>
       <c r="N207" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O207" s="3" t="s">
         <v>10</v>
@@ -16427,7 +16433,7 @@
         <v>38</v>
       </c>
       <c r="U207" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.3">
@@ -16436,34 +16442,34 @@
         <v>CT2019_207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C208" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D208">
         <v>48</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F208">
         <v>125</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="H208">
         <v>48</v>
       </c>
       <c r="I208" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="J208">
         <v>125</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>239</v>
@@ -16472,7 +16478,7 @@
         <v>2</v>
       </c>
       <c r="N208" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O208" s="3" t="s">
         <v>10</v>
@@ -16493,7 +16499,7 @@
         <v>38</v>
       </c>
       <c r="U208" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.3">
@@ -16502,34 +16508,34 @@
         <v>CT2019_208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C209" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D209">
         <v>48</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F209">
         <v>125</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H209">
         <v>48</v>
       </c>
       <c r="I209" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J209">
         <v>125</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>95</v>
@@ -16538,7 +16544,7 @@
         <v>2</v>
       </c>
       <c r="N209" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O209" s="3" t="s">
         <v>10</v>
@@ -16559,7 +16565,7 @@
         <v>38</v>
       </c>
       <c r="U209" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.3">
@@ -16568,34 +16574,34 @@
         <v>CT2019_209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C210" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D210">
         <v>48</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F210">
         <v>125</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="H210">
         <v>48</v>
       </c>
       <c r="I210" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="J210">
         <v>125</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="L210" s="3" t="s">
         <v>96</v>
@@ -16604,7 +16610,7 @@
         <v>2</v>
       </c>
       <c r="N210" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O210" s="3" t="s">
         <v>10</v>
@@ -16625,7 +16631,7 @@
         <v>38</v>
       </c>
       <c r="U210" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.3">
@@ -16634,34 +16640,34 @@
         <v>CT2019_210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C211" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D211">
         <v>48</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F211">
         <v>125</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H211">
         <v>48</v>
       </c>
       <c r="I211" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="J211">
         <v>125</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>97</v>
@@ -16670,7 +16676,7 @@
         <v>2</v>
       </c>
       <c r="N211" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O211" s="3" t="s">
         <v>10</v>
@@ -16691,7 +16697,7 @@
         <v>38</v>
       </c>
       <c r="U211" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.3">
@@ -16700,34 +16706,34 @@
         <v>CT2019_211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C212" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D212">
         <v>48</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F212">
         <v>125</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="H212">
         <v>48</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="J212">
         <v>125</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="L212" s="3" t="s">
         <v>20</v>
@@ -16736,7 +16742,7 @@
         <v>2</v>
       </c>
       <c r="N212" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O212" s="3" t="s">
         <v>10</v>
@@ -16757,7 +16763,7 @@
         <v>38</v>
       </c>
       <c r="U212" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.3">
@@ -16766,34 +16772,34 @@
         <v>CT2019_212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C213" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D213">
         <v>48</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F213">
         <v>125</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H213">
         <v>48</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="J213">
         <v>125</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>240</v>
@@ -16802,7 +16808,7 @@
         <v>2</v>
       </c>
       <c r="N213" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O213" s="3" t="s">
         <v>10</v>
@@ -16823,7 +16829,7 @@
         <v>40</v>
       </c>
       <c r="U213" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
@@ -16832,34 +16838,34 @@
         <v>CT2019_213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C214" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D214">
         <v>48</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F214">
         <v>125</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H214">
         <v>48</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="J214">
         <v>125</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="L214" s="3" t="s">
         <v>241</v>
@@ -16868,7 +16874,7 @@
         <v>2</v>
       </c>
       <c r="N214" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O214" s="3" t="s">
         <v>10</v>
@@ -16889,7 +16895,7 @@
         <v>38</v>
       </c>
       <c r="U214" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.3">
@@ -16898,34 +16904,34 @@
         <v>CT2019_214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C215" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D215">
         <v>48</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F215">
         <v>125</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H215">
         <v>48</v>
       </c>
       <c r="I215" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="J215">
         <v>125</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="L215" s="3" t="s">
         <v>28</v>
@@ -16934,7 +16940,7 @@
         <v>2</v>
       </c>
       <c r="N215" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O215" s="3" t="s">
         <v>10</v>
@@ -16955,7 +16961,7 @@
         <v>38</v>
       </c>
       <c r="U215" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.3">
@@ -16964,34 +16970,34 @@
         <v>CT2019_215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C216" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D216">
         <v>48</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F216">
         <v>125</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H216">
         <v>48</v>
       </c>
       <c r="I216" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="J216">
         <v>125</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="L216" s="3" t="s">
         <v>182</v>
@@ -17000,7 +17006,7 @@
         <v>2</v>
       </c>
       <c r="N216" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O216" s="3" t="s">
         <v>10</v>
@@ -17027,34 +17033,34 @@
         <v>CT2019_216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C217" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D217">
         <v>48</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F217">
         <v>125</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H217">
         <v>48</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="J217">
         <v>125</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="L217" s="3" t="s">
         <v>101</v>
@@ -17063,7 +17069,7 @@
         <v>2</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O217" s="3" t="s">
         <v>10</v>
@@ -17084,7 +17090,7 @@
         <v>74</v>
       </c>
       <c r="U217" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
@@ -17093,34 +17099,34 @@
         <v>CT2019_217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C218" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D218">
         <v>48</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F218">
         <v>125</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H218">
         <v>48</v>
       </c>
       <c r="I218" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="J218">
         <v>125</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="L218" s="3" t="s">
         <v>34</v>
@@ -17129,7 +17135,7 @@
         <v>2</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O218" s="3" t="s">
         <v>10</v>
@@ -17150,7 +17156,7 @@
         <v>38</v>
       </c>
       <c r="U218" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.3">
@@ -17159,34 +17165,34 @@
         <v>CT2019_218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C219" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D219">
         <v>48</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F219">
         <v>125</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="H219">
         <v>48</v>
       </c>
       <c r="I219" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J219">
         <v>125</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="L219" s="3" t="s">
         <v>183</v>
@@ -17195,7 +17201,7 @@
         <v>2</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O219" s="3" t="s">
         <v>10</v>
@@ -17216,7 +17222,7 @@
         <v>38</v>
       </c>
       <c r="U219" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.3">
@@ -17225,34 +17231,34 @@
         <v>CT2019_219</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C220" t="s">
         <v>771</v>
       </c>
-      <c r="C220" t="s">
-        <v>773</v>
-      </c>
       <c r="D220">
         <v>48</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F220">
         <v>125</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="H220">
         <v>48</v>
       </c>
       <c r="I220" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="J220">
         <v>125</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>184</v>
@@ -17261,7 +17267,7 @@
         <v>2</v>
       </c>
       <c r="N220" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O220" s="3" t="s">
         <v>10</v>
@@ -17282,7 +17288,7 @@
         <v>38</v>
       </c>
       <c r="U220" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.3">
@@ -17291,34 +17297,34 @@
         <v>CT2019_220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C221" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D221">
         <v>48</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F221">
         <v>125</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H221">
         <v>48</v>
       </c>
       <c r="I221" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="J221">
         <v>125</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>44</v>
@@ -17327,7 +17333,7 @@
         <v>2</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O221" s="3" t="s">
         <v>10</v>
@@ -17348,7 +17354,7 @@
         <v>38</v>
       </c>
       <c r="U221" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
   </sheetData>

--- a/data/taggingData/setData.xlsx
+++ b/data/taggingData/setData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2777" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="815">
   <si>
     <t>set</t>
   </si>
@@ -2049,9 +2049,6 @@
     <t>48.896</t>
   </si>
   <si>
-    <t>32.021</t>
-  </si>
-  <si>
     <t>32.297</t>
   </si>
   <si>
@@ -2463,18 +2460,9 @@
     <t>50.125</t>
   </si>
   <si>
-    <t>check start long</t>
-  </si>
-  <si>
     <t>48.395</t>
   </si>
   <si>
-    <t>51.902</t>
-  </si>
-  <si>
-    <t>check start lat</t>
-  </si>
-  <si>
     <t>37.328</t>
   </si>
   <si>
@@ -2484,16 +2472,7 @@
     <t>40.511</t>
   </si>
   <si>
-    <t>check start coords</t>
-  </si>
-  <si>
     <t>46.437</t>
-  </si>
-  <si>
-    <t>CHECK START LAT/LONG</t>
-  </si>
-  <si>
-    <t>CHECK START LONG</t>
   </si>
 </sst>
 </file>
@@ -3242,9 +3221,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U175" sqref="U175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4571,7 +4550,7 @@
         <v>48</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="J21">
         <v>125</v>
@@ -4622,7 +4601,7 @@
         <v>48</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F22">
         <v>125</v>
@@ -4670,7 +4649,7 @@
         <v>39</v>
       </c>
       <c r="U22" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -8351,7 +8330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_080</v>
@@ -8414,7 +8393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_081</v>
@@ -8477,7 +8456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_082</v>
@@ -8540,7 +8519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_083</v>
@@ -8603,7 +8582,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_084</v>
@@ -8666,7 +8645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_085</v>
@@ -8729,7 +8708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_086</v>
@@ -8792,7 +8771,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_087</v>
@@ -8854,11 +8833,8 @@
       <c r="T88" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U88" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_088</v>
@@ -8921,7 +8897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_089</v>
@@ -8984,7 +8960,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_090</v>
@@ -9047,7 +9023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_091</v>
@@ -9110,7 +9086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_092</v>
@@ -9173,7 +9149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_093</v>
@@ -9236,7 +9212,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_094</v>
@@ -9299,7 +9275,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
         <v>CT2019_095</v>
@@ -10283,7 +10259,7 @@
         <v>125</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>404</v>
@@ -10311,9 +10287,6 @@
       </c>
       <c r="T111" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="U111" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.3">
@@ -10337,7 +10310,7 @@
         <v>125</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H112">
         <v>48</v>
@@ -10377,9 +10350,6 @@
       </c>
       <c r="T112" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="U112" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.3">
@@ -10415,7 +10385,7 @@
         <v>125</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>407</v>
@@ -10466,7 +10436,7 @@
         <v>125</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="H114">
         <v>48</v>
@@ -10506,9 +10476,6 @@
       </c>
       <c r="T114" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="U114" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.3">
@@ -10607,7 +10574,7 @@
         <v>125</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="L116" s="3" t="s">
         <v>410</v>
@@ -10658,7 +10625,7 @@
         <v>125</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="H117">
         <v>48</v>
@@ -10698,9 +10665,6 @@
       </c>
       <c r="T117" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="U117" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.3">
@@ -12031,9 +11995,6 @@
       <c r="T138" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U138" t="s">
-        <v>821</v>
-      </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" t="str">
@@ -14018,7 +13979,7 @@
         <v>48</v>
       </c>
       <c r="I170" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="J170">
         <v>125</v>
@@ -14069,7 +14030,7 @@
         <v>48</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F171">
         <v>125</v>
@@ -14135,13 +14096,13 @@
         <v>48</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>813</v>
+        <v>634</v>
       </c>
       <c r="F172">
         <v>125</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>673</v>
+        <v>635</v>
       </c>
       <c r="H172">
         <v>48</v>
@@ -14153,7 +14114,7 @@
         <v>125</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L172" s="3" t="s">
         <v>176</v>
@@ -14181,9 +14142,6 @@
       </c>
       <c r="T172" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="U172" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.3">
@@ -14207,7 +14165,7 @@
         <v>125</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H173">
         <v>48</v>
@@ -14219,7 +14177,7 @@
         <v>125</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L173" s="3" t="s">
         <v>239</v>
@@ -14270,7 +14228,7 @@
         <v>125</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H174">
         <v>48</v>
@@ -14282,7 +14240,7 @@
         <v>125</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L174" s="3" t="s">
         <v>95</v>
@@ -14333,7 +14291,7 @@
         <v>125</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H175">
         <v>48</v>
@@ -14345,7 +14303,7 @@
         <v>125</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>96</v>
@@ -14396,7 +14354,7 @@
         <v>125</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H176">
         <v>48</v>
@@ -14408,7 +14366,7 @@
         <v>125</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>97</v>
@@ -14459,7 +14417,7 @@
         <v>125</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H177">
         <v>48</v>
@@ -14471,7 +14429,7 @@
         <v>125</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>20</v>
@@ -14522,7 +14480,7 @@
         <v>125</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H178">
         <v>48</v>
@@ -14534,7 +14492,7 @@
         <v>125</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L178" s="3" t="s">
         <v>240</v>
@@ -14585,7 +14543,7 @@
         <v>125</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H179">
         <v>48</v>
@@ -14597,7 +14555,7 @@
         <v>125</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L179" s="3" t="s">
         <v>241</v>
@@ -14648,7 +14606,7 @@
         <v>125</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H180">
         <v>48</v>
@@ -14660,7 +14618,7 @@
         <v>125</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L180" s="3" t="s">
         <v>28</v>
@@ -14711,7 +14669,7 @@
         <v>125</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H181">
         <v>48</v>
@@ -14723,7 +14681,7 @@
         <v>125</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L181" s="3" t="s">
         <v>182</v>
@@ -14774,7 +14732,7 @@
         <v>125</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H182">
         <v>48</v>
@@ -14786,7 +14744,7 @@
         <v>125</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>101</v>
@@ -14837,7 +14795,7 @@
         <v>125</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H183">
         <v>48</v>
@@ -14849,7 +14807,7 @@
         <v>125</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L183" s="3" t="s">
         <v>34</v>
@@ -14900,7 +14858,7 @@
         <v>125</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H184">
         <v>48</v>
@@ -14912,7 +14870,7 @@
         <v>125</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L184" s="3" t="s">
         <v>183</v>
@@ -14963,7 +14921,7 @@
         <v>125</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H185">
         <v>48</v>
@@ -14975,7 +14933,7 @@
         <v>125</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L185" s="3" t="s">
         <v>184</v>
@@ -15026,7 +14984,7 @@
         <v>125</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H186">
         <v>48</v>
@@ -15038,7 +14996,7 @@
         <v>125</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L186" s="3" t="s">
         <v>44</v>
@@ -15089,19 +15047,19 @@
         <v>125</v>
       </c>
       <c r="G187" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H187">
+        <v>48</v>
+      </c>
+      <c r="I187" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="H187">
-        <v>48</v>
-      </c>
-      <c r="I187" s="3" t="s">
+      <c r="J187">
+        <v>125</v>
+      </c>
+      <c r="K187" s="3" t="s">
         <v>689</v>
-      </c>
-      <c r="J187">
-        <v>125</v>
-      </c>
-      <c r="K187" s="3" t="s">
-        <v>690</v>
       </c>
       <c r="L187" s="3" t="s">
         <v>66</v>
@@ -15131,7 +15089,7 @@
         <v>38</v>
       </c>
       <c r="U187" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.3">
@@ -15140,34 +15098,34 @@
         <v>CT2019_187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C188" t="s">
+        <v>709</v>
+      </c>
+      <c r="D188">
+        <v>48</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D188">
-        <v>48</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="F188">
+        <v>125</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="H188">
+        <v>48</v>
+      </c>
+      <c r="I188" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="F188">
-        <v>125</v>
-      </c>
-      <c r="G188" s="3" t="s">
+      <c r="J188">
+        <v>125</v>
+      </c>
+      <c r="K188" s="3" t="s">
         <v>730</v>
-      </c>
-      <c r="H188">
-        <v>48</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="J188">
-        <v>125</v>
-      </c>
-      <c r="K188" s="3" t="s">
-        <v>731</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>19</v>
@@ -15203,34 +15161,34 @@
         <v>CT2019_188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C189" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D189">
         <v>48</v>
       </c>
       <c r="E189" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="F189">
+        <v>125</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="H189">
+        <v>48</v>
+      </c>
+      <c r="I189" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="F189">
-        <v>125</v>
-      </c>
-      <c r="G189" s="3" t="s">
+      <c r="J189">
+        <v>125</v>
+      </c>
+      <c r="K189" s="3" t="s">
         <v>731</v>
-      </c>
-      <c r="H189">
-        <v>48</v>
-      </c>
-      <c r="I189" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="J189">
-        <v>125</v>
-      </c>
-      <c r="K189" s="3" t="s">
-        <v>732</v>
       </c>
       <c r="L189" s="3" t="s">
         <v>20</v>
@@ -15266,34 +15224,34 @@
         <v>CT2019_189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C190" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D190">
         <v>48</v>
       </c>
       <c r="E190" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F190">
+        <v>125</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="H190">
+        <v>48</v>
+      </c>
+      <c r="I190" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="F190">
-        <v>125</v>
-      </c>
-      <c r="G190" s="3" t="s">
+      <c r="J190">
+        <v>125</v>
+      </c>
+      <c r="K190" s="3" t="s">
         <v>732</v>
-      </c>
-      <c r="H190">
-        <v>48</v>
-      </c>
-      <c r="I190" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="J190">
-        <v>125</v>
-      </c>
-      <c r="K190" s="3" t="s">
-        <v>733</v>
       </c>
       <c r="L190" s="3" t="s">
         <v>240</v>
@@ -15329,34 +15287,34 @@
         <v>CT2019_190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C191" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D191">
         <v>48</v>
       </c>
       <c r="E191" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F191">
+        <v>125</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="H191">
+        <v>48</v>
+      </c>
+      <c r="I191" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="F191">
-        <v>125</v>
-      </c>
-      <c r="G191" s="3" t="s">
+      <c r="J191">
+        <v>125</v>
+      </c>
+      <c r="K191" s="3" t="s">
         <v>733</v>
-      </c>
-      <c r="H191">
-        <v>48</v>
-      </c>
-      <c r="I191" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="J191">
-        <v>125</v>
-      </c>
-      <c r="K191" s="3" t="s">
-        <v>734</v>
       </c>
       <c r="L191" s="3" t="s">
         <v>241</v>
@@ -15392,34 +15350,34 @@
         <v>CT2019_191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C192" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D192">
         <v>48</v>
       </c>
       <c r="E192" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F192">
+        <v>125</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="H192">
+        <v>48</v>
+      </c>
+      <c r="I192" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="F192">
-        <v>125</v>
-      </c>
-      <c r="G192" s="3" t="s">
+      <c r="J192">
+        <v>125</v>
+      </c>
+      <c r="K192" s="3" t="s">
         <v>734</v>
-      </c>
-      <c r="H192">
-        <v>48</v>
-      </c>
-      <c r="I192" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="J192">
-        <v>125</v>
-      </c>
-      <c r="K192" s="3" t="s">
-        <v>735</v>
       </c>
       <c r="L192" s="3" t="s">
         <v>28</v>
@@ -15455,34 +15413,34 @@
         <v>CT2019_192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C193" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D193">
         <v>48</v>
       </c>
       <c r="E193" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="F193">
+        <v>125</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H193">
+        <v>48</v>
+      </c>
+      <c r="I193" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="F193">
-        <v>125</v>
-      </c>
-      <c r="G193" s="3" t="s">
+      <c r="J193">
+        <v>125</v>
+      </c>
+      <c r="K193" s="3" t="s">
         <v>735</v>
-      </c>
-      <c r="H193">
-        <v>48</v>
-      </c>
-      <c r="I193" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="J193">
-        <v>125</v>
-      </c>
-      <c r="K193" s="3" t="s">
-        <v>736</v>
       </c>
       <c r="L193" s="3" t="s">
         <v>182</v>
@@ -15518,34 +15476,34 @@
         <v>CT2019_193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C194" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D194">
         <v>48</v>
       </c>
       <c r="E194" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F194">
+        <v>125</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="H194">
+        <v>48</v>
+      </c>
+      <c r="I194" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="F194">
-        <v>125</v>
-      </c>
-      <c r="G194" s="3" t="s">
+      <c r="J194">
+        <v>125</v>
+      </c>
+      <c r="K194" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="H194">
-        <v>48</v>
-      </c>
-      <c r="I194" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="J194">
-        <v>125</v>
-      </c>
-      <c r="K194" s="3" t="s">
-        <v>737</v>
       </c>
       <c r="L194" s="3" t="s">
         <v>101</v>
@@ -15554,7 +15512,7 @@
         <v>2</v>
       </c>
       <c r="N194" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O194" s="3" t="s">
         <v>10</v>
@@ -15575,7 +15533,7 @@
         <v>37</v>
       </c>
       <c r="U194" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.3">
@@ -15584,34 +15542,34 @@
         <v>CT2019_194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C195" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D195">
         <v>48</v>
       </c>
       <c r="E195" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="F195">
+        <v>125</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H195">
+        <v>48</v>
+      </c>
+      <c r="I195" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="F195">
-        <v>125</v>
-      </c>
-      <c r="G195" s="3" t="s">
+      <c r="J195">
+        <v>125</v>
+      </c>
+      <c r="K195" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="H195">
-        <v>48</v>
-      </c>
-      <c r="I195" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="J195">
-        <v>125</v>
-      </c>
-      <c r="K195" s="3" t="s">
-        <v>738</v>
       </c>
       <c r="L195" s="3" t="s">
         <v>34</v>
@@ -15620,7 +15578,7 @@
         <v>2</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O195" s="3" t="s">
         <v>10</v>
@@ -15641,7 +15599,7 @@
         <v>37</v>
       </c>
       <c r="U195" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.3">
@@ -15650,34 +15608,34 @@
         <v>CT2019_195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C196" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D196">
         <v>48</v>
       </c>
       <c r="E196" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F196">
+        <v>125</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="H196">
+        <v>48</v>
+      </c>
+      <c r="I196" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="F196">
-        <v>125</v>
-      </c>
-      <c r="G196" s="3" t="s">
+      <c r="J196">
+        <v>125</v>
+      </c>
+      <c r="K196" s="3" t="s">
         <v>738</v>
-      </c>
-      <c r="H196">
-        <v>48</v>
-      </c>
-      <c r="I196" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="J196">
-        <v>125</v>
-      </c>
-      <c r="K196" s="3" t="s">
-        <v>739</v>
       </c>
       <c r="L196" s="3" t="s">
         <v>183</v>
@@ -15686,7 +15644,7 @@
         <v>2</v>
       </c>
       <c r="N196" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O196" s="3" t="s">
         <v>10</v>
@@ -15707,7 +15665,7 @@
         <v>37</v>
       </c>
       <c r="U196" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.3">
@@ -15716,34 +15674,34 @@
         <v>CT2019_196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C197" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D197">
         <v>48</v>
       </c>
       <c r="E197" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="F197">
+        <v>125</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H197">
+        <v>48</v>
+      </c>
+      <c r="I197" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="F197">
-        <v>125</v>
-      </c>
-      <c r="G197" s="3" t="s">
+      <c r="J197">
+        <v>125</v>
+      </c>
+      <c r="K197" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="H197">
-        <v>48</v>
-      </c>
-      <c r="I197" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="J197">
-        <v>125</v>
-      </c>
-      <c r="K197" s="3" t="s">
-        <v>740</v>
       </c>
       <c r="L197" s="3" t="s">
         <v>184</v>
@@ -15752,7 +15710,7 @@
         <v>2</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O197" s="3" t="s">
         <v>10</v>
@@ -15773,7 +15731,7 @@
         <v>37</v>
       </c>
       <c r="U197" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.3">
@@ -15782,34 +15740,34 @@
         <v>CT2019_197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C198" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D198">
         <v>48</v>
       </c>
       <c r="E198" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F198">
+        <v>125</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H198">
+        <v>48</v>
+      </c>
+      <c r="I198" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="F198">
-        <v>125</v>
-      </c>
-      <c r="G198" s="3" t="s">
+      <c r="J198">
+        <v>125</v>
+      </c>
+      <c r="K198" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="H198">
-        <v>48</v>
-      </c>
-      <c r="I198" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="J198">
-        <v>125</v>
-      </c>
-      <c r="K198" s="3" t="s">
-        <v>741</v>
       </c>
       <c r="L198" s="3" t="s">
         <v>44</v>
@@ -15818,7 +15776,7 @@
         <v>2</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O198" s="3" t="s">
         <v>10</v>
@@ -15839,7 +15797,7 @@
         <v>37</v>
       </c>
       <c r="U198" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.3">
@@ -15848,34 +15806,34 @@
         <v>CT2019_198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C199" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D199">
         <v>48</v>
       </c>
       <c r="E199" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="F199">
+        <v>125</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="H199">
+        <v>48</v>
+      </c>
+      <c r="I199" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="F199">
-        <v>125</v>
-      </c>
-      <c r="G199" s="3" t="s">
+      <c r="J199">
+        <v>125</v>
+      </c>
+      <c r="K199" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="H199">
-        <v>48</v>
-      </c>
-      <c r="I199" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="J199">
-        <v>125</v>
-      </c>
-      <c r="K199" s="3" t="s">
-        <v>742</v>
       </c>
       <c r="L199" s="3" t="s">
         <v>66</v>
@@ -15884,7 +15842,7 @@
         <v>2</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>10</v>
@@ -15905,7 +15863,7 @@
         <v>37</v>
       </c>
       <c r="U199" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.3">
@@ -15914,34 +15872,34 @@
         <v>CT2019_199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C200" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D200">
         <v>48</v>
       </c>
       <c r="E200" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F200">
+        <v>125</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="H200">
+        <v>48</v>
+      </c>
+      <c r="I200" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="F200">
-        <v>125</v>
-      </c>
-      <c r="G200" s="3" t="s">
+      <c r="J200">
+        <v>125</v>
+      </c>
+      <c r="K200" s="3" t="s">
         <v>742</v>
-      </c>
-      <c r="H200">
-        <v>48</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="J200">
-        <v>125</v>
-      </c>
-      <c r="K200" s="3" t="s">
-        <v>743</v>
       </c>
       <c r="L200" s="3" t="s">
         <v>67</v>
@@ -15950,7 +15908,7 @@
         <v>2</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O200" s="3" t="s">
         <v>10</v>
@@ -15971,7 +15929,7 @@
         <v>37</v>
       </c>
       <c r="U200" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.3">
@@ -15980,34 +15938,34 @@
         <v>CT2019_200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C201" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D201">
         <v>48</v>
       </c>
       <c r="E201" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="F201">
+        <v>125</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="H201">
+        <v>48</v>
+      </c>
+      <c r="I201" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="F201">
-        <v>125</v>
-      </c>
-      <c r="G201" s="3" t="s">
+      <c r="J201">
+        <v>125</v>
+      </c>
+      <c r="K201" s="3" t="s">
         <v>743</v>
-      </c>
-      <c r="H201">
-        <v>48</v>
-      </c>
-      <c r="I201" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="J201">
-        <v>125</v>
-      </c>
-      <c r="K201" s="3" t="s">
-        <v>744</v>
       </c>
       <c r="L201" s="3" t="s">
         <v>68</v>
@@ -16016,7 +15974,7 @@
         <v>2</v>
       </c>
       <c r="N201" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O201" s="3" t="s">
         <v>10</v>
@@ -16037,7 +15995,7 @@
         <v>37</v>
       </c>
       <c r="U201" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.3">
@@ -16046,34 +16004,34 @@
         <v>CT2019_201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C202" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D202">
         <v>48</v>
       </c>
       <c r="E202" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F202">
+        <v>125</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="H202">
+        <v>48</v>
+      </c>
+      <c r="I202" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="F202">
-        <v>125</v>
-      </c>
-      <c r="G202" s="3" t="s">
+      <c r="J202">
+        <v>125</v>
+      </c>
+      <c r="K202" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="H202">
-        <v>48</v>
-      </c>
-      <c r="I202" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="J202">
-        <v>125</v>
-      </c>
-      <c r="K202" s="3" t="s">
-        <v>745</v>
       </c>
       <c r="L202" s="3" t="s">
         <v>69</v>
@@ -16082,7 +16040,7 @@
         <v>2</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O202" s="3" t="s">
         <v>10</v>
@@ -16103,7 +16061,7 @@
         <v>37</v>
       </c>
       <c r="U202" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.3">
@@ -16112,34 +16070,34 @@
         <v>CT2019_202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C203" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D203">
         <v>48</v>
       </c>
       <c r="E203" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="F203">
+        <v>125</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="H203">
+        <v>48</v>
+      </c>
+      <c r="I203" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="F203">
-        <v>125</v>
-      </c>
-      <c r="G203" s="3" t="s">
+      <c r="J203">
+        <v>125</v>
+      </c>
+      <c r="K203" s="3" t="s">
         <v>745</v>
-      </c>
-      <c r="H203">
-        <v>48</v>
-      </c>
-      <c r="I203" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="J203">
-        <v>125</v>
-      </c>
-      <c r="K203" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="L203" s="3" t="s">
         <v>185</v>
@@ -16148,7 +16106,7 @@
         <v>2</v>
       </c>
       <c r="N203" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O203" s="3" t="s">
         <v>10</v>
@@ -16169,7 +16127,7 @@
         <v>37</v>
       </c>
       <c r="U203" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.3">
@@ -16178,34 +16136,34 @@
         <v>CT2019_203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C204" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D204">
         <v>48</v>
       </c>
       <c r="E204" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F204">
+        <v>125</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="H204">
+        <v>48</v>
+      </c>
+      <c r="I204" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F204">
-        <v>125</v>
-      </c>
-      <c r="G204" s="3" t="s">
+      <c r="J204">
+        <v>125</v>
+      </c>
+      <c r="K204" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="H204">
-        <v>48</v>
-      </c>
-      <c r="I204" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="J204">
-        <v>125</v>
-      </c>
-      <c r="K204" s="3" t="s">
-        <v>747</v>
       </c>
       <c r="L204" s="3" t="s">
         <v>71</v>
@@ -16214,7 +16172,7 @@
         <v>2</v>
       </c>
       <c r="N204" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="O204" s="3" t="s">
         <v>10</v>
@@ -16235,7 +16193,7 @@
         <v>38</v>
       </c>
       <c r="U204" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.3">
@@ -16244,43 +16202,43 @@
         <v>CT2019_204</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C205" t="s">
         <v>709</v>
       </c>
-      <c r="C205" t="s">
-        <v>710</v>
-      </c>
       <c r="D205">
         <v>48</v>
       </c>
       <c r="E205" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="F205">
+        <v>125</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="H205">
+        <v>48</v>
+      </c>
+      <c r="I205" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="F205">
-        <v>125</v>
-      </c>
-      <c r="G205" s="3" t="s">
+      <c r="J205">
+        <v>125</v>
+      </c>
+      <c r="K205" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="H205">
-        <v>48</v>
-      </c>
-      <c r="I205" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="J205">
-        <v>125</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="L205" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="L205" s="3" t="s">
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205" s="3" t="s">
         <v>749</v>
-      </c>
-      <c r="M205">
-        <v>2</v>
-      </c>
-      <c r="N205" s="3" t="s">
-        <v>750</v>
       </c>
       <c r="O205" s="3" t="s">
         <v>10</v>
@@ -16301,7 +16259,7 @@
         <v>37</v>
       </c>
       <c r="U205" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.3">
@@ -16310,34 +16268,34 @@
         <v>CT2019_205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C206" t="s">
+        <v>770</v>
+      </c>
+      <c r="D206">
+        <v>48</v>
+      </c>
+      <c r="E206" s="3" t="s">
         <v>771</v>
       </c>
-      <c r="D206">
-        <v>48</v>
-      </c>
-      <c r="E206" s="3" t="s">
+      <c r="F206">
+        <v>125</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H206">
+        <v>48</v>
+      </c>
+      <c r="I206" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="F206">
-        <v>125</v>
-      </c>
-      <c r="G206" s="3" t="s">
+      <c r="J206">
+        <v>125</v>
+      </c>
+      <c r="K206" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="H206">
-        <v>48</v>
-      </c>
-      <c r="I206" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="J206">
-        <v>125</v>
-      </c>
-      <c r="K206" s="3" t="s">
-        <v>790</v>
       </c>
       <c r="L206" s="3" t="s">
         <v>486</v>
@@ -16367,7 +16325,7 @@
         <v>38</v>
       </c>
       <c r="U206" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.3">
@@ -16376,34 +16334,34 @@
         <v>CT2019_206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C207" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D207">
         <v>48</v>
       </c>
       <c r="E207" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F207">
+        <v>125</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H207">
+        <v>48</v>
+      </c>
+      <c r="I207" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="F207">
-        <v>125</v>
-      </c>
-      <c r="G207" s="3" t="s">
+      <c r="J207">
+        <v>125</v>
+      </c>
+      <c r="K207" s="3" t="s">
         <v>790</v>
-      </c>
-      <c r="H207">
-        <v>48</v>
-      </c>
-      <c r="I207" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="J207">
-        <v>125</v>
-      </c>
-      <c r="K207" s="3" t="s">
-        <v>791</v>
       </c>
       <c r="L207" s="3" t="s">
         <v>292</v>
@@ -16433,7 +16391,7 @@
         <v>38</v>
       </c>
       <c r="U207" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.3">
@@ -16442,34 +16400,34 @@
         <v>CT2019_207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C208" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D208">
         <v>48</v>
       </c>
       <c r="E208" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F208">
+        <v>125</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H208">
+        <v>48</v>
+      </c>
+      <c r="I208" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="F208">
-        <v>125</v>
-      </c>
-      <c r="G208" s="3" t="s">
+      <c r="J208">
+        <v>125</v>
+      </c>
+      <c r="K208" s="3" t="s">
         <v>791</v>
-      </c>
-      <c r="H208">
-        <v>48</v>
-      </c>
-      <c r="I208" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="J208">
-        <v>125</v>
-      </c>
-      <c r="K208" s="3" t="s">
-        <v>792</v>
       </c>
       <c r="L208" s="3" t="s">
         <v>239</v>
@@ -16499,7 +16457,7 @@
         <v>38</v>
       </c>
       <c r="U208" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.3">
@@ -16508,34 +16466,34 @@
         <v>CT2019_208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C209" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D209">
         <v>48</v>
       </c>
       <c r="E209" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="F209">
+        <v>125</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H209">
+        <v>48</v>
+      </c>
+      <c r="I209" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="F209">
-        <v>125</v>
-      </c>
-      <c r="G209" s="3" t="s">
+      <c r="J209">
+        <v>125</v>
+      </c>
+      <c r="K209" s="3" t="s">
         <v>792</v>
-      </c>
-      <c r="H209">
-        <v>48</v>
-      </c>
-      <c r="I209" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="J209">
-        <v>125</v>
-      </c>
-      <c r="K209" s="3" t="s">
-        <v>793</v>
       </c>
       <c r="L209" s="3" t="s">
         <v>95</v>
@@ -16565,7 +16523,7 @@
         <v>38</v>
       </c>
       <c r="U209" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.3">
@@ -16574,34 +16532,34 @@
         <v>CT2019_209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C210" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D210">
         <v>48</v>
       </c>
       <c r="E210" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F210">
+        <v>125</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H210">
+        <v>48</v>
+      </c>
+      <c r="I210" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="F210">
-        <v>125</v>
-      </c>
-      <c r="G210" s="3" t="s">
+      <c r="J210">
+        <v>125</v>
+      </c>
+      <c r="K210" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="H210">
-        <v>48</v>
-      </c>
-      <c r="I210" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="J210">
-        <v>125</v>
-      </c>
-      <c r="K210" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="L210" s="3" t="s">
         <v>96</v>
@@ -16631,7 +16589,7 @@
         <v>38</v>
       </c>
       <c r="U210" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.3">
@@ -16640,34 +16598,34 @@
         <v>CT2019_210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C211" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D211">
         <v>48</v>
       </c>
       <c r="E211" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F211">
+        <v>125</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="H211">
+        <v>48</v>
+      </c>
+      <c r="I211" s="3" t="s">
         <v>777</v>
       </c>
-      <c r="F211">
-        <v>125</v>
-      </c>
-      <c r="G211" s="3" t="s">
+      <c r="J211">
+        <v>125</v>
+      </c>
+      <c r="K211" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="H211">
-        <v>48</v>
-      </c>
-      <c r="I211" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="J211">
-        <v>125</v>
-      </c>
-      <c r="K211" s="3" t="s">
-        <v>795</v>
       </c>
       <c r="L211" s="3" t="s">
         <v>97</v>
@@ -16697,7 +16655,7 @@
         <v>38</v>
       </c>
       <c r="U211" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.3">
@@ -16706,34 +16664,34 @@
         <v>CT2019_211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C212" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D212">
         <v>48</v>
       </c>
       <c r="E212" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F212">
+        <v>125</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="H212">
+        <v>48</v>
+      </c>
+      <c r="I212" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="F212">
-        <v>125</v>
-      </c>
-      <c r="G212" s="3" t="s">
+      <c r="J212">
+        <v>125</v>
+      </c>
+      <c r="K212" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="H212">
-        <v>48</v>
-      </c>
-      <c r="I212" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="J212">
-        <v>125</v>
-      </c>
-      <c r="K212" s="3" t="s">
-        <v>796</v>
       </c>
       <c r="L212" s="3" t="s">
         <v>20</v>
@@ -16763,7 +16721,7 @@
         <v>38</v>
       </c>
       <c r="U212" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.3">
@@ -16772,34 +16730,34 @@
         <v>CT2019_212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C213" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D213">
         <v>48</v>
       </c>
       <c r="E213" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F213">
+        <v>125</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="H213">
+        <v>48</v>
+      </c>
+      <c r="I213" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="F213">
-        <v>125</v>
-      </c>
-      <c r="G213" s="3" t="s">
+      <c r="J213">
+        <v>125</v>
+      </c>
+      <c r="K213" s="3" t="s">
         <v>796</v>
-      </c>
-      <c r="H213">
-        <v>48</v>
-      </c>
-      <c r="I213" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="J213">
-        <v>125</v>
-      </c>
-      <c r="K213" s="3" t="s">
-        <v>797</v>
       </c>
       <c r="L213" s="3" t="s">
         <v>240</v>
@@ -16829,7 +16787,7 @@
         <v>40</v>
       </c>
       <c r="U213" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.3">
@@ -16838,34 +16796,34 @@
         <v>CT2019_213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C214" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D214">
         <v>48</v>
       </c>
       <c r="E214" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F214">
+        <v>125</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="H214">
+        <v>48</v>
+      </c>
+      <c r="I214" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="F214">
-        <v>125</v>
-      </c>
-      <c r="G214" s="3" t="s">
+      <c r="J214">
+        <v>125</v>
+      </c>
+      <c r="K214" s="3" t="s">
         <v>797</v>
-      </c>
-      <c r="H214">
-        <v>48</v>
-      </c>
-      <c r="I214" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="J214">
-        <v>125</v>
-      </c>
-      <c r="K214" s="3" t="s">
-        <v>798</v>
       </c>
       <c r="L214" s="3" t="s">
         <v>241</v>
@@ -16895,7 +16853,7 @@
         <v>38</v>
       </c>
       <c r="U214" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.3">
@@ -16904,34 +16862,34 @@
         <v>CT2019_214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C215" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D215">
         <v>48</v>
       </c>
       <c r="E215" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="F215">
+        <v>125</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H215">
+        <v>48</v>
+      </c>
+      <c r="I215" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="F215">
-        <v>125</v>
-      </c>
-      <c r="G215" s="3" t="s">
+      <c r="J215">
+        <v>125</v>
+      </c>
+      <c r="K215" s="3" t="s">
         <v>798</v>
-      </c>
-      <c r="H215">
-        <v>48</v>
-      </c>
-      <c r="I215" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="J215">
-        <v>125</v>
-      </c>
-      <c r="K215" s="3" t="s">
-        <v>799</v>
       </c>
       <c r="L215" s="3" t="s">
         <v>28</v>
@@ -16961,7 +16919,7 @@
         <v>38</v>
       </c>
       <c r="U215" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.3">
@@ -16970,34 +16928,34 @@
         <v>CT2019_215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C216" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D216">
         <v>48</v>
       </c>
       <c r="E216" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F216">
+        <v>125</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="H216">
+        <v>48</v>
+      </c>
+      <c r="I216" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="F216">
-        <v>125</v>
-      </c>
-      <c r="G216" s="3" t="s">
+      <c r="J216">
+        <v>125</v>
+      </c>
+      <c r="K216" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="H216">
-        <v>48</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="J216">
-        <v>125</v>
-      </c>
-      <c r="K216" s="3" t="s">
-        <v>800</v>
       </c>
       <c r="L216" s="3" t="s">
         <v>182</v>
@@ -17033,34 +16991,34 @@
         <v>CT2019_216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C217" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D217">
         <v>48</v>
       </c>
       <c r="E217" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="F217">
+        <v>125</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="H217">
+        <v>48</v>
+      </c>
+      <c r="I217" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="F217">
-        <v>125</v>
-      </c>
-      <c r="G217" s="3" t="s">
+      <c r="J217">
+        <v>125</v>
+      </c>
+      <c r="K217" s="3" t="s">
         <v>800</v>
-      </c>
-      <c r="H217">
-        <v>48</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="J217">
-        <v>125</v>
-      </c>
-      <c r="K217" s="3" t="s">
-        <v>801</v>
       </c>
       <c r="L217" s="3" t="s">
         <v>101</v>
@@ -17090,7 +17048,7 @@
         <v>74</v>
       </c>
       <c r="U217" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.3">
@@ -17099,34 +17057,34 @@
         <v>CT2019_217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C218" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D218">
         <v>48</v>
       </c>
       <c r="E218" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F218">
+        <v>125</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H218">
+        <v>48</v>
+      </c>
+      <c r="I218" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="F218">
-        <v>125</v>
-      </c>
-      <c r="G218" s="3" t="s">
+      <c r="J218">
+        <v>125</v>
+      </c>
+      <c r="K218" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="H218">
-        <v>48</v>
-      </c>
-      <c r="I218" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="J218">
-        <v>125</v>
-      </c>
-      <c r="K218" s="3" t="s">
-        <v>802</v>
       </c>
       <c r="L218" s="3" t="s">
         <v>34</v>
@@ -17156,7 +17114,7 @@
         <v>38</v>
       </c>
       <c r="U218" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.3">
@@ -17165,34 +17123,34 @@
         <v>CT2019_218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C219" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D219">
         <v>48</v>
       </c>
       <c r="E219" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="F219">
+        <v>125</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="H219">
+        <v>48</v>
+      </c>
+      <c r="I219" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="F219">
-        <v>125</v>
-      </c>
-      <c r="G219" s="3" t="s">
+      <c r="J219">
+        <v>125</v>
+      </c>
+      <c r="K219" s="3" t="s">
         <v>802</v>
-      </c>
-      <c r="H219">
-        <v>48</v>
-      </c>
-      <c r="I219" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="J219">
-        <v>125</v>
-      </c>
-      <c r="K219" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="L219" s="3" t="s">
         <v>183</v>
@@ -17222,7 +17180,7 @@
         <v>38</v>
       </c>
       <c r="U219" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.3">
@@ -17231,34 +17189,34 @@
         <v>CT2019_219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C220" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D220">
         <v>48</v>
       </c>
       <c r="E220" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F220">
+        <v>125</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="H220">
+        <v>48</v>
+      </c>
+      <c r="I220" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="F220">
-        <v>125</v>
-      </c>
-      <c r="G220" s="3" t="s">
+      <c r="J220">
+        <v>125</v>
+      </c>
+      <c r="K220" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="H220">
-        <v>48</v>
-      </c>
-      <c r="I220" s="3" t="s">
-        <v>787</v>
-      </c>
-      <c r="J220">
-        <v>125</v>
-      </c>
-      <c r="K220" s="3" t="s">
-        <v>804</v>
       </c>
       <c r="L220" s="3" t="s">
         <v>184</v>
@@ -17288,7 +17246,7 @@
         <v>38</v>
       </c>
       <c r="U220" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.3">
@@ -17297,34 +17255,34 @@
         <v>CT2019_220</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C221" t="s">
         <v>770</v>
       </c>
-      <c r="C221" t="s">
-        <v>771</v>
-      </c>
       <c r="D221">
         <v>48</v>
       </c>
       <c r="E221" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="F221">
+        <v>125</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H221">
+        <v>48</v>
+      </c>
+      <c r="I221" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="F221">
-        <v>125</v>
-      </c>
-      <c r="G221" s="3" t="s">
+      <c r="J221">
+        <v>125</v>
+      </c>
+      <c r="K221" s="3" t="s">
         <v>804</v>
-      </c>
-      <c r="H221">
-        <v>48</v>
-      </c>
-      <c r="I221" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="J221">
-        <v>125</v>
-      </c>
-      <c r="K221" s="3" t="s">
-        <v>805</v>
       </c>
       <c r="L221" s="3" t="s">
         <v>44</v>
@@ -17354,7 +17312,7 @@
         <v>38</v>
       </c>
       <c r="U221" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
   </sheetData>
